--- a/dataset/lg/chiravibhava.xlsx
+++ b/dataset/lg/chiravibhava.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>సిరిమగఁడున్ బితామహుఁడుఁ జేరి భజింపఁగ వెండికొండపై
 సరస నవేందుకాంతమణిసౌధమునందుఁ బసిండిగద్దెపై
@@ -477,32 +474,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('సి', '|'), ('రి', '|'), ('మ', '|'), ('గ', '|'), ('డున్', 'U'), ('బి', '|'), ('తా', 'U'), ('మ', '|'), ('హు', '|'), ('డు', '|'), ('జే', 'U'), ('రి', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('గ', '|'), ('వెం', 'U'), ('డి', '|'), ('కొం', 'U'), ('డ', '|'), ('పై', 'U'), ('స', '|'), ('ర', '|'), ('స', '|'), ('న', '|'), ('వేం', 'U'), ('దు', '|'), ('కాం', 'U'), ('త', '|'), ('మ', '|'), ('ణి', '|'), ('సౌ', 'U'), ('ధ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('బ', '|'), ('సిం', 'U'), ('డి', '|'), ('గ', 'U'), ('ద్దె', '|'), ('పై', 'U'), ('గి', '|'), ('రి', '|'), ('సు', '|'), ('త', '|'), ('గూ', 'U'), ('డి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('గే', 'U'), ('రె', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('మ', '|'), ('దిన్', 'U'), ('ద', '|'), ('లం', 'U'), ('చె', '|'), ('దన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>కరులు హరుల్ చమూవరులు గాటపు మేల్‍నగరుల్ కడానిబం-
 గరులు సరుల్ తలోదరులు గంధమిళన్మృగనాభిచందనా-
@@ -510,32 +504,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('రు', '|'), ('లు', '|'), ('హ', '|'), ('రుల్', 'U'), ('చ', '|'), ('మూ', 'U'), ('వ', '|'), ('రు', '|'), ('లు', '|'), ('గా', 'U'), ('ట', '|'), ('పు', '|'), ('మే', 'U'), ('ల్న', '|'), ('గ', '|'), ('రుల్', 'U'), ('క', '|'), ('డా', 'U'), ('ని', '|'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('లు', '|'), ('స', '|'), ('రుల్', 'U'), ('త', '|'), ('లో', 'U'), ('ద', '|'), ('రు', '|'), ('లు', '|'), ('గం', 'U'), ('ధ', '|'), ('మి', '|'), ('ళ', 'U'), ('న్మృ', '|'), ('గ', '|'), ('నా', 'U'), ('భి', '|'), ('చం', 'U'), ('ద', '|'), ('నా', 'U'), ('గ', '|'), ('రు', '|'), ('లు', '|'), ('వి', '|'), ('రుల్', 'U'), ('జ', '|'), ('గా', 'U'), ('సి', '|'), ('రు', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('సు', '|'), ('ఖిం', 'U'), ('త్రు', 'U'), ('త్వ', '|'), ('దీ', 'U'), ('యు', '|'), ('లౌ', 'U'), ('న', '|'), ('రుల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>పరమకృపార్ణవా! తుహినపర్వతరాజకుమారికాధవా!
 వరవృషసైంధవా! కుటిలవైరినిశాటసమిద్ధవా! మనో-
@@ -543,32 +534,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మ', '|'), ('కృ', '|'), ('పా', 'U'), ('ర్ణ', '|'), ('వా', 'U'), ('తు', '|'), ('హి', '|'), ('న', '|'), ('ప', 'U'), ('ర్వ', '|'), ('త', '|'), ('రా', 'U'), ('జ', '|'), ('కు', '|'), ('మా', 'U'), ('రి', '|'), ('కా', 'U'), ('ధ', '|'), ('వా', 'U'), ('వ', '|'), ('ర', '|'), ('వృ', '|'), ('ష', '|'), ('సైం', 'U'), ('ధ', '|'), ('వా', 'U'), ('కు', '|'), ('టి', '|'), ('ల', '|'), ('వై', 'U'), ('రి', '|'), ('ని', '|'), ('శా', 'U'), ('ట', '|'), ('స', '|'), ('మి', 'U'), ('ద్ధ', '|'), ('వా', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('క', '|'), ('ర', '|'), ('సా', 'U'), ('ర', '|'), ('సా', 'U'), ('గ్ర', '|'), ('ని', '|'), ('హి', '|'), ('తా', 'U'), ('జి', '|'), ('గ', '|'), ('తా', 'U'), ('న', '|'), ('త', '|'), ('బాం', 'U'), ('ధ', '|'), ('వా', 'U'), ('శి', '|'), ('వా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>నిరుపమ కూచిమంచికులనీరధిచంద్రుడు గంగమంత్రికిన్
 బరమపతివ్రతామణియు భాగ్యసమన్వితయైన లక్ష్మికిన్
@@ -576,32 +564,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('రు', '|'), ('ప', '|'), ('మ', '|'), ('కూ', 'U'), ('చి', '|'), ('మం', 'U'), ('చి', '|'), ('కు', '|'), ('ల', '|'), ('నీ', 'U'), ('ర', '|'), ('ధి', '|'), ('చం', 'U'), ('ద్రు', '|'), ('డు', '|'), ('గం', 'U'), ('గ', '|'), ('మం', 'U'), ('త్రి', '|'), ('కిన్', 'U'), ('బ', '|'), ('ర', '|'), ('మ', '|'), ('ప', '|'), ('తి', 'U'), ('వ్ర', '|'), ('తా', 'U'), ('మ', '|'), ('ణి', '|'), ('యు', '|'), ('భా', 'U'), ('గ్య', '|'), ('స', '|'), ('మ', 'U'), ('న్వి', '|'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('కిన్', 'U'), ('వ', '|'), ('ర', '|'), ('సు', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('తి', 'U'), ('మ్మ', '|'), ('క', '|'), ('వి', '|'), ('వ', 'U'), ('ర్యు', '|'), ('డ', '|'), ('నే', 'U'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('దన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>శరనిధి కర్ఘ్యమిచ్చు క్రియ సారసబంధున కారతిచ్చు వై-
 ఖరి నిఖిలాబ్జజాండచయకర్తకు నీకు సమగ్రభక్తి శ్రీ-
@@ -609,32 +594,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('ర', '|'), ('ని', '|'), ('ధి', '|'), ('క', 'U'), ('ర్ఘ్య', '|'), ('మి', 'U'), ('చ్చు', 'U'), ('క్రి', '|'), ('య', '|'), ('సా', 'U'), ('ర', '|'), ('స', '|'), ('బం', 'U'), ('ధు', '|'), ('న', '|'), ('కా', 'U'), ('ర', '|'), ('తి', 'U'), ('చ్చు', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('ని', '|'), ('ఖి', '|'), ('లా', 'U'), ('బ్జ', '|'), ('జాం', 'U'), ('డ', '|'), ('చ', '|'), ('య', '|'), ('క', 'U'), ('ర్త', '|'), ('కు', '|'), ('నీ', 'U'), ('కు', '|'), ('స', '|'), ('మ', 'U'), ('గ్ర', '|'), ('భ', 'U'), ('క్తి', 'U'), ('శ్రీ', 'U'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('గో', 'U'), ('రి', '|'), ('యొ', 'U'), ('క్క', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('స', '|'), ('మ', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('సే', 'U'), ('య', '|'), ('బూ', 'U'), ('ని', '|'), ('తిన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>మరలని భక్తితోడ మును మల్హణబిల్హణముఖ్యసత్కవీ-
 శ్వరులు కవిత్వవైఖరిని సారెకు నిన్ బ్రణుతించి ధన్యులై
@@ -642,32 +624,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ర', '|'), ('ల', '|'), ('ని', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('డ', '|'), ('ము', '|'), ('ను', '|'), ('మ', 'U'), ('ల్హ', '|'), ('ణ', '|'), ('బి', 'U'), ('ల్హ', '|'), ('ణ', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('స', 'U'), ('త్క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('లు', '|'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('ని', '|'), ('సా', 'U'), ('రె', '|'), ('కు', '|'), ('నిన్', 'U'), ('బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('చి', '|'), ('ధ', 'U'), ('న్యు', '|'), ('లై', 'U'), ('బ', '|'), ('ర', '|'), ('గి', '|'), ('ర', '|'), ('టం', 'U'), ('చు', '|'), ('నే', 'U'), ('ను', '|'), ('ని', '|'), ('ను', '|'), ('బ', 'U'), ('ద్య', '|'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('గ', '|'), ('సం', 'U'), ('స్మ', '|'), ('రిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>హరిముఖసర్వదిక్పరివృతార్చితపాదసరోజుఁడైన య-
 క్కరిముఖుఁ డెప్పుడున్ వితతకౌతుకలీలఁ బొసంగఁజేయుఁబో
@@ -675,32 +654,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('ము', '|'), ('ఖ', '|'), ('స', 'U'), ('ర్వ', '|'), ('ది', 'U'), ('క్ప', '|'), ('రి', '|'), ('వృ', '|'), ('తా', 'U'), ('ర్చి', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('స', '|'), ('రో', 'U'), ('జు', '|'), ('డై', 'U'), ('న', '|'), ('య', 'U'), ('క్క', '|'), ('రి', '|'), ('ము', '|'), ('ఖు', '|'), ('డె', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('వి', '|'), ('త', '|'), ('త', '|'), ('కౌ', 'U'), ('తు', '|'), ('క', '|'), ('లీ', 'U'), ('ల', '|'), ('బొ', '|'), ('సం', 'U'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('బో', 'U'), ('ని', '|'), ('ర', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('ద్వ', '|'), ('దీ', 'U'), ('య', '|'), ('ప', '|'), ('ద', '|'), ('నీ', 'U'), ('ర', '|'), ('జ', '|'), ('భ', 'U'), ('క్తు', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('స', 'U'), ('త్కృ', '|'), ('తుల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>శరశరదిందుకుందహరిచందనహారతుషారతారకా-
 దరఘనసారవర్ణ వరదండశుకాంబుజపాణి వాణి యా-
@@ -708,32 +684,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('ర', '|'), ('శ', '|'), ('ర', '|'), ('దిం', 'U'), ('దు', '|'), ('కుం', 'U'), ('ద', '|'), ('హ', '|'), ('రి', '|'), ('చం', 'U'), ('ద', '|'), ('న', '|'), ('హా', 'U'), ('ర', '|'), ('తు', '|'), ('షా', 'U'), ('ర', '|'), ('తా', 'U'), ('ర', '|'), ('కా', 'U'), ('ద', '|'), ('ర', '|'), ('ఘ', '|'), ('న', '|'), ('సా', 'U'), ('ర', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('వ', '|'), ('ర', '|'), ('దం', 'U'), ('డ', '|'), ('శు', '|'), ('కాం', 'U'), ('బు', '|'), ('జ', '|'), ('పా', 'U'), ('ణి', '|'), ('వా', 'U'), ('ణి', '|'), ('యా', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('న', 'U'), ('బ్రో', 'U'), ('చు', '|'), ('చో', 'U'), ('గ', '|'), ('వి', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('ము', '|'), ('ని', 'U'), ('న్బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('చు', '|'), ('ధ', 'U'), ('న్య', '|'), ('మై', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>తరలని భక్తి నా హృదయతామరసంబున సంస్మరింతు దు-
 ర్భరదురితాంధకారవిసరప్రసరన్నళినీసుహృల్లస-
@@ -742,32 +715,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ర', '|'), ('ల', '|'), ('ని', '|'), ('భ', 'U'), ('క్తి', '|'), ('నా', 'U'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('సం', 'U'), ('స్మ', '|'), ('రిం', 'U'), ('తు', '|'), ('దు', 'U'), ('ర్భ', '|'), ('ర', '|'), ('దు', '|'), ('రి', '|'), ('తాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('ర', '|'), ('వి', '|'), ('స', '|'), ('ర', 'U'), ('ప్ర', '|'), ('స', '|'), ('ర', 'U'), ('న్న', '|'), ('ళి', '|'), ('నీ', 'U'), ('సు', '|'), ('హృ', 'U'), ('ల్ల', '|'), ('స', 'U'), ('త్కి', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('దెం', 'U'), ('దు', '|'), ('లు', '|'), ('రి', '|'), ('ది', 'U'), ('వ్య', '|'), ('కు', '|'), ('లో', 'U'), ('ద్భ', '|'), ('వు', '|'), ('లిం', 'U'), ('గ', '|'), ('నా', 'U'), ('ర్యు', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', 'U'), ('గ్ర', '|'), ('భ', '|'), ('వ', '|'), ('తో', 'U'), ('య', '|'), ('ధి', '|'), ('సం', 'U'), ('త', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('లె', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>గురుతరలీలఁ బీఠపురి కుక్కుటలింగమహాప్రభుండవై
 బరగెడు నిన్ను నేనిపుడు భక్తి దలర్పఁగ నాశ్రయింతు నీ
@@ -775,32 +745,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('లీ', 'U'), ('ల', '|'), ('బీ', 'U'), ('ఠ', '|'), ('పు', '|'), ('రి', '|'), ('కు', 'U'), ('క్కు', '|'), ('ట', '|'), ('లిం', 'U'), ('గ', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('భుం', 'U'), ('డ', '|'), ('వై', 'U'), ('బ', '|'), ('ర', '|'), ('గె', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('ని', '|'), ('పు', '|'), ('డు', '|'), ('భ', 'U'), ('క్తి', '|'), ('ద', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గ', '|'), ('నా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('తు', '|'), ('నీ', 'U'), ('వ', '|'), ('ర', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ని', '|'), ('రీ', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('వా', 'U'), ('లె', '|'), ('ము', '|'), ('నా', 'U'), ('ప', '|'), ('యి', '|'), ('ని', 'U'), ('ల్పి', 'U'), ('ప్రో', 'U'), ('వ', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>నరవతి కొక్కకావ్యమిడినన్ ధనధాన్యమణీచోళముల్
 పురములు వాహనంబులు విభూషణగోవసుధాదికంబులుం
@@ -808,32 +775,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('వ', '|'), ('తి', '|'), ('కొ', 'U'), ('క్క', '|'), ('కా', 'U'), ('వ్య', '|'), ('మి', '|'), ('డి', '|'), ('నన్', 'U'), ('ధ', '|'), ('న', '|'), ('ధా', 'U'), ('న్య', '|'), ('మ', '|'), ('ణీ', 'U'), ('చో', 'U'), ('ళ', '|'), ('ముల్', 'U'), ('పు', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('వా', 'U'), ('హ', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('వి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('గో', 'U'), ('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('ది', '|'), ('కం', 'U'), ('బు', '|'), ('లుం', 'U'), ('గు', '|'), ('రు', '|'), ('కృ', '|'), ('ప', '|'), ('ని', 'U'), ('చ్చి', 'U'), ('బ్రో', 'U'), ('చు', '|'), ('ని', '|'), ('ది', '|'), ('గో', 'U'), ('మ', '|'), ('రి', '|'), ('నీ', 'U'), ('వి', '|'), ('క', '|'), ('నే', 'U'), ('మి', '|'), ('యి', 'U'), ('చ్చె', '|'), ('దో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>హర పరమేశ శంకర పురాంతక భర్గ గిరీశ చంద్రశే-
 ఖర మృడ కృత్తివాస శితికంధర శర్వ నగేంద్రజామనో-
@@ -841,32 +805,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('ర', '|'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('శ', '|'), ('శం', 'U'), ('క', '|'), ('ర', '|'), ('పు', '|'), ('రాం', 'U'), ('త', '|'), ('క', '|'), ('భ', 'U'), ('ర్గ', '|'), ('గి', '|'), ('రీ', 'U'), ('శ', '|'), ('చం', 'U'), ('ద్ర', '|'), ('శే', 'U'), ('ఖ', '|'), ('ర', '|'), ('మృ', '|'), ('డ', '|'), ('కృ', 'U'), ('త్తి', '|'), ('వా', 'U'), ('స', '|'), ('శి', '|'), ('తి', '|'), ('కం', 'U'), ('ధ', '|'), ('ర', '|'), ('శ', 'U'), ('ర్వ', '|'), ('న', '|'), ('గేం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('శి', '|'), ('వ', '|'), ('మృ', 'U'), ('త్యు', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('ని', '|'), ('ను', 'U'), ('న్స్మ', '|'), ('రి', '|'), ('యిం', 'U'), ('తు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('న్చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>కరయుగళంబు మోడ్చి కుతుకంబున మ్రొక్కెద సర్వదేవతా-
 పరివృఢమౌళిభాగ్మకుటపంకజరాగమణిప్రభాచ్ఛటా-
@@ -874,32 +835,29 @@
 జిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('యు', '|'), ('గ', '|'), ('ళం', 'U'), ('బు', '|'), ('మో', 'U'), ('డ్చి', '|'), ('కు', '|'), ('తు', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('మ్రొ', 'U'), ('క్కె', '|'), ('ద', '|'), ('స', 'U'), ('ర్వ', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('ప', '|'), ('రి', '|'), ('వృ', '|'), ('ఢ', '|'), ('మౌ', 'U'), ('ళి', '|'), ('భా', 'U'), ('గ్మ', '|'), ('కు', '|'), ('ట', '|'), ('పం', 'U'), ('క', '|'), ('జ', '|'), ('రా', 'U'), ('గ', '|'), ('మ', '|'), ('ణి', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('చ్ఛ', '|'), ('టా', 'U'), ('ని', '|'), ('ర', '|'), ('త', '|'), ('వి', '|'), ('రా', 'U'), ('జ', '|'), ('మా', 'U'), ('న', '|'), ('ర', '|'), ('మ', '|'), ('ణీ', 'U'), ('య', '|'), ('భ', '|'), ('వ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ణా', 'U'), ('గ్ర', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కిం', 'U'), ('జి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>తరమె నుతింప నేరికిని దావక దివ్యపదప్రభావమున్
 గరికిని సాలెపుర్వునకు గాడుపుదిండికి మోక్షమిచ్చి యా-
@@ -907,32 +865,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ర', '|'), ('మె', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('నే', 'U'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('దా', 'U'), ('వ', '|'), ('క', '|'), ('ది', 'U'), ('వ్య', '|'), ('ప', '|'), ('ద', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('మున్', 'U'), ('గ', '|'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('సా', 'U'), ('లె', '|'), ('పు', 'U'), ('ర్వు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('డు', '|'), ('పు', '|'), ('దిం', 'U'), ('డి', '|'), ('కి', '|'), ('మో', 'U'), ('క్ష', '|'), ('మి', 'U'), ('చ్చి', '|'), ('యా', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('లు', '|'), ('కొం', 'U'), ('టి', '|'), ('వ', '|'), ('ట', '|'), ('దా', 'U'), ('న', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్యు', '|'), ('ల', 'U'), ('బ్రో', 'U'), ('చు', '|'), ('ట', 'U'), ('బ్ర', '|'), ('మా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>తరలని భక్తి నెల్లపుడు ధ్యానము సేతు తుషారధారుణీ-
 ధరవరకన్యకావిలసితస్తనకుంభవిలిప్తకుంకుమా-
@@ -940,32 +895,29 @@
 జిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ర', '|'), ('ల', '|'), ('ని', '|'), ('భ', 'U'), ('క్తి', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('సే', 'U'), ('తు', '|'), ('తు', '|'), ('షా', 'U'), ('ర', '|'), ('ధా', 'U'), ('రు', '|'), ('ణీ', 'U'), ('ధ', '|'), ('ర', '|'), ('వ', '|'), ('ర', '|'), ('క', 'U'), ('న్య', '|'), ('కా', 'U'), ('వి', '|'), ('ల', '|'), ('సి', '|'), ('త', 'U'), ('స్త', '|'), ('న', '|'), ('కుం', 'U'), ('భ', '|'), ('వి', '|'), ('లి', 'U'), ('ప్త', '|'), ('కుం', 'U'), ('కు', '|'), ('మా', 'U'), ('గ', '|'), ('రు', '|'), ('ఘ', '|'), ('న', '|'), ('సా', 'U'), ('ర', '|'), ('చం', 'U'), ('ద', '|'), ('న', '|'), ('సు', '|'), ('గం', 'U'), ('ధ', '|'), ('వి', '|'), ('భా', 'U'), ('స్వ', '|'), ('దు', '|'), ('రః', 'U'), ('స్థ', '|'), ('లు', 'U'), ('న్ని', '|'), ('నున్', 'U'), ('జి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>శరధిశయాంబకాయ రవిచంద్రకృపీటభవాంబకాయ గో-
 పరివృఢకేతనాయ సితపర్వతకూటనికేతనాయ సు-
@@ -973,32 +925,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('ర', '|'), ('ధి', '|'), ('శ', '|'), ('యాం', 'U'), ('బ', '|'), ('కా', 'U'), ('య', '|'), ('ర', '|'), ('వి', '|'), ('చం', 'U'), ('ద్ర', '|'), ('కృ', '|'), ('పీ', 'U'), ('ట', '|'), ('భ', '|'), ('వాం', 'U'), ('బ', '|'), ('కా', 'U'), ('య', '|'), ('గో', 'U'), ('ప', '|'), ('రి', '|'), ('వృ', '|'), ('ఢ', '|'), ('కే', 'U'), ('త', '|'), ('నా', 'U'), ('య', '|'), ('సి', '|'), ('త', '|'), ('ప', 'U'), ('ర్వ', '|'), ('త', '|'), ('కూ', 'U'), ('ట', '|'), ('ని', '|'), ('కే', 'U'), ('త', '|'), ('నా', 'U'), ('య', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('మ', '|'), ('తే', 'U'), ('భ', '|'), ('గ', '|'), ('వ', '|'), ('తే', 'U'), ('శి', '|'), ('వ', '|'), ('తే', 'U'), ('న', '|'), ('మ', '|'), ('యం', 'U'), ('చు', '|'), ('మొ', 'U'), ('క్కె', '|'), ('దన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>సరసీరుహాక్ష పద్మభవ శక్ర కృశానుకృతాంత యామినీ-
 చర వరుణానిలైలబిల చంద్రకిరీట సుధామయూఖ భా-
@@ -1006,32 +955,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('సీ', 'U'), ('రు', '|'), ('హా', 'U'), ('క్ష', '|'), ('ప', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వ', '|'), ('శ', 'U'), ('క్ర', '|'), ('కృ', '|'), ('శా', 'U'), ('ను', '|'), ('కృ', '|'), ('తాం', 'U'), ('త', '|'), ('యా', 'U'), ('మి', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('వ', '|'), ('రు', '|'), ('ణా', 'U'), ('ని', '|'), ('లై', 'U'), ('ల', '|'), ('బి', '|'), ('ల', '|'), ('చం', 'U'), ('ద్ర', '|'), ('కి', '|'), ('రీ', 'U'), ('ట', '|'), ('సు', '|'), ('ధా', 'U'), ('మ', '|'), ('యూ', 'U'), ('ఖ', '|'), ('భా', 'U'), ('స్క', '|'), ('ర', '|'), ('ము', '|'), ('ఖ', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('ప్ర', '|'), ('ము', '|'), ('ఖ', '|'), ('స', 'U'), ('ర్వ', '|'), ('ము', '|'), ('నీ', 'U'), ('వె', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('వే', 'U'), ('డె', '|'), ('దన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>శిరములు వేయిగల్గు నహిశేఖరుఁడైన చతుర్ముఖంబులన్
 బరగు విధాతయైన సులభంబుగ నొక్కిసుమంతయైన నీ
@@ -1039,32 +985,29 @@
 జిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('శి', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('వే', 'U'), ('యి', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', '|'), ('హి', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('చ', '|'), ('తు', '|'), ('ర్ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('లన్', 'U'), ('బ', '|'), ('ర', '|'), ('గు', '|'), ('వి', '|'), ('ధా', 'U'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('సు', '|'), ('ల', '|'), ('భం', 'U'), ('బు', '|'), ('గ', '|'), ('నొ', 'U'), ('క్కి', '|'), ('సు', '|'), ('మం', 'U'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('నీ', 'U'), ('చ', '|'), ('రి', '|'), ('త', '|'), ('ము', '|'), ('లె', 'U'), ('న్న', '|'), ('జా', 'U'), ('ల', '|'), ('ర', '|'), ('ట', '|'), ('శ', 'U'), ('క్తు', '|'), ('ల', '|'), ('మే', 'U'), ('మ', '|'), ('ము', '|'), ('బోం', 'U'), ('ట్ల', '|'), ('మె', 'U'), ('న్న', '|'), ('గా', 'U'), ('జి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>వరుణభవాత్రిగౌతములు వ్యాసవసిష్ఠఘటోద్భవుల్ పరా-
 శరసుతకణ్వకౌశికులు జహ్నుశమీకముఖాఖిలర్షిశే-
@@ -1072,32 +1015,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('రు', '|'), ('ణ', '|'), ('భ', '|'), ('వా', 'U'), ('త్రి', '|'), ('గౌ', 'U'), ('త', '|'), ('ము', '|'), ('లు', 'U'), ('వ్యా', 'U'), ('స', '|'), ('వ', '|'), ('సి', 'U'), ('ష్ఠ', '|'), ('ఘ', '|'), ('టో', 'U'), ('ద్భ', '|'), ('వుల్', 'U'), ('ప', '|'), ('రా', 'U'), ('శ', '|'), ('ర', '|'), ('సు', '|'), ('త', '|'), ('క', 'U'), ('ణ్వ', '|'), ('కౌ', 'U'), ('శి', '|'), ('కు', '|'), ('లు', '|'), ('జ', 'U'), ('హ్ను', '|'), ('శ', '|'), ('మీ', 'U'), ('క', '|'), ('ము', '|'), ('ఖా', 'U'), ('ఖి', '|'), ('ల', 'U'), ('ర్షి', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('లు', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('జూ', 'U'), ('ల', '|'), ('ర', '|'), ('ట', '|'), ('కా', 'U'), ('ని', '|'), ('ను', '|'), ('మా', 'U'), ('దృ', '|'), ('శు', '|'), ('లె', 'U'), ('న్న', '|'), ('నే', 'U'), ('ర్తు', '|'), ('రే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>హరిణము ఢక్క శూలము గజాజిన మెక్కువకన్ను పాపరా-
 సరములు బూదిపూత వినుజక్కర లేనెలపున్క లెద్దు దా
@@ -1105,32 +1045,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('ణ', '|'), ('ము', '|'), ('ఢ', 'U'), ('క్క', '|'), ('శూ', 'U'), ('ల', '|'), ('ము', '|'), ('గ', '|'), ('జా', 'U'), ('జి', '|'), ('న', '|'), ('మె', 'U'), ('క్కు', '|'), ('వ', '|'), ('క', 'U'), ('న్ను', '|'), ('పా', 'U'), ('ప', '|'), ('రా', 'U'), ('స', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('బూ', 'U'), ('ది', '|'), ('పూ', 'U'), ('త', '|'), ('వి', '|'), ('ను', '|'), ('జ', 'U'), ('క్క', '|'), ('ర', '|'), ('లే', 'U'), ('నె', '|'), ('ల', '|'), ('పు', 'U'), ('న్క', '|'), ('లె', 'U'), ('ద్దు', '|'), ('దా', 'U'), ('ని', '|'), ('రు', '|'), ('మె', '|'), ('యి', '|'), ('క', 'U'), ('ప్పు', '|'), ('కు', 'U'), ('త్తు', '|'), ('క', '|'), ('యు', '|'), ('నె', 'U'), ('మ్మి', '|'), ('గ', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ని', '|'), ('ను', 'U'), ('న్భ', '|'), ('జిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>ధరణి రథంబుగా శృతివితానము వాజులుగా రమామనో-
 హరుఁడు శరంబుగా మరుదహార్యము సింగిణిగా బిలేశయే-
@@ -1138,32 +1075,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('ర', '|'), ('థం', 'U'), ('బు', '|'), ('గా', 'U'), ('శృ', '|'), ('తి', '|'), ('వి', '|'), ('తా', 'U'), ('న', '|'), ('ము', '|'), ('వా', 'U'), ('జు', '|'), ('లు', '|'), ('గా', 'U'), ('ర', '|'), ('మా', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('రు', '|'), ('డు', '|'), ('శ', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('మ', '|'), ('రు', '|'), ('ద', '|'), ('హా', 'U'), ('ర్య', '|'), ('ము', '|'), ('సిం', 'U'), ('గి', '|'), ('ణి', '|'), ('గా', 'U'), ('బి', '|'), ('లే', 'U'), ('శ', '|'), ('యే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డు', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('న', '|'), ('లు', '|'), ('వ', '|'), ('సా', 'U'), ('ర', '|'), ('థి', '|'), ('గా', 'U'), ('ది', '|'), ('గ', 'U'), ('ప్రో', 'U'), ('ళ్ల', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('తౌ', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>హరి మిము వేయుపద్మముల నర్చన చేసిన సర్వలోకభీ-
 కరఖరదైత్యసంహరణకారణమై కనుపట్టు చుట్టువా-
@@ -1171,32 +1105,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('మి', '|'), ('ము', '|'), ('వే', 'U'), ('యు', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ము', '|'), ('ల', '|'), ('న', 'U'), ('ర్చ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('ఖ', '|'), ('ర', '|'), ('దై', 'U'), ('త్య', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మై', 'U'), ('క', '|'), ('ను', '|'), ('ప', 'U'), ('ట్టు', '|'), ('చు', 'U'), ('ట్టు', '|'), ('వా', 'U'), ('ల', '|'), ('రు', '|'), ('దు', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('మె', 'U'), ('చ్చి', '|'), ('భు', '|'), ('వ', '|'), ('నై', 'U'), ('క', '|'), ('ధు', '|'), ('రం', 'U'), ('ధ', '|'), ('రు', '|'), ('జే', 'U'), ('సి', '|'), ('యే', 'U'), ('లి', '|'), ('తో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>తరణిసుతోగ్రపాశవితతవ్యథ గాసిలి స్వేతుఁ డర్థి నిన్
 స్మరణము నొంద నజ్జము వెసం బడదన్ని ధరామరోత్తమున్
@@ -1204,32 +1135,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ర', '|'), ('ణి', '|'), ('సు', '|'), ('తో', 'U'), ('గ్ర', '|'), ('పా', 'U'), ('శ', '|'), ('వి', '|'), ('త', '|'), ('త', 'U'), ('వ్య', '|'), ('థ', '|'), ('గా', 'U'), ('సి', '|'), ('లి', 'U'), ('స్వే', 'U'), ('తు', '|'), ('డ', 'U'), ('ర్థి', '|'), ('నిన్', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('నొం', 'U'), ('ద', '|'), ('న', 'U'), ('జ్జ', '|'), ('ము', '|'), ('వె', '|'), ('సం', 'U'), ('బ', '|'), ('డ', '|'), ('ద', 'U'), ('న్ని', '|'), ('ధ', '|'), ('రా', 'U'), ('మ', '|'), ('రో', 'U'), ('త్త', '|'), ('మున్', 'U'), ('గ', '|'), ('ర', '|'), ('మ', '|'), ('ను', '|'), ('ర', 'U'), ('క్తి', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('వె', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('జీ', 'U'), ('వి', '|'), ('జే', 'U'), ('సి', '|'), ('మేల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>అరుదుగ నింద్రకీలగిరి నర్జునుఁ డుగ్రతపం బొనర్చుచో
 నరిగి కిరాతరూపమునఁ జక్కఁగ నిల్చి కరంబు వానితో
@@ -1237,32 +1165,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('రు', '|'), ('దు', '|'), ('గ', '|'), ('నిం', 'U'), ('ద్ర', '|'), ('కీ', 'U'), ('ల', '|'), ('గి', '|'), ('రి', '|'), ('న', 'U'), ('ర్జు', '|'), ('ను', '|'), ('డు', 'U'), ('గ్ర', '|'), ('త', '|'), ('పం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('చో', 'U'), ('న', '|'), ('రి', '|'), ('గి', '|'), ('కి', '|'), ('రా', 'U'), ('త', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('జ', 'U'), ('క్క', '|'), ('గ', '|'), ('ని', 'U'), ('ల్చి', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('వా', 'U'), ('ని', '|'), ('తో', 'U'), ('దు', '|'), ('ర', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('మె', 'U'), ('చ్చి', '|'), ('కృ', '|'), ('ప', '|'), ('తో', 'U'), ('డు', '|'), ('త', '|'), ('బా', 'U'), ('శు', '|'), ('ప', '|'), ('తా', 'U'), ('స్త్ర', '|'), ('మీ', 'U'), ('య', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>సురలును దైత్యులుం గదసి స్రుక్కక వార్ధి మధింపుచున్నచో
 నురుగతినందు హాలహల ముద్భవమై జగముల్ హరింప న-
@@ -1270,32 +1195,29 @@
 జిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ర', '|'), ('లు', '|'), ('ను', '|'), ('దై', 'U'), ('త్యు', '|'), ('లుం', 'U'), ('గ', '|'), ('ద', '|'), ('సి', 'U'), ('స్రు', 'U'), ('క్క', '|'), ('క', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('మ', '|'), ('ధిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('ను', '|'), ('రు', '|'), ('గ', '|'), ('తి', '|'), ('నం', 'U'), ('దు', '|'), ('హా', 'U'), ('ల', '|'), ('హ', '|'), ('ల', '|'), ('ము', 'U'), ('ద్భ', '|'), ('వ', '|'), ('మై', 'U'), ('జ', '|'), ('గ', '|'), ('ముల్', 'U'), ('హ', '|'), ('రిం', 'U'), ('ప', '|'), ('న', 'U'), ('గ్గ', '|'), ('ర', '|'), ('ళ', '|'), ('ము', '|'), ('కం', 'U'), ('ఠ', '|'), ('సీ', 'U'), ('మ', '|'), ('ని', '|'), ('డి', '|'), ('కా', 'U'), ('వ', '|'), ('వె', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నా', 'U'), ('ద', '|'), ('టన్', 'U'), ('జి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>కిరికలహంసరూపములఁ గృష్ణుఁడు నంబురుహాసనుండు నీ
 చరణములున్ శిరంబు గనఁ జాగి రసాతలము న్నభంబు వే-
@@ -1303,32 +1225,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('కి', '|'), ('రి', '|'), ('క', '|'), ('ల', '|'), ('హం', 'U'), ('స', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('గృ', 'U'), ('ష్ణు', '|'), ('డు', '|'), ('నం', 'U'), ('బు', '|'), ('రు', '|'), ('హా', 'U'), ('స', '|'), ('నుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లున్', 'U'), ('శి', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('న', '|'), ('జా', 'U'), ('గి', '|'), ('ర', '|'), ('సా', 'U'), ('త', '|'), ('ల', '|'), ('ము', 'U'), ('న్న', '|'), ('భం', 'U'), ('బు', '|'), ('వే', 'U'), ('స', '|'), ('రి', '|'), ('వె', '|'), ('దు', '|'), ('కం', 'U'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('కి', 'U'), ('బ్ర', '|'), ('స', 'U'), ('న్న', '|'), ('త', '|'), ('నొం', 'U'), ('ద', '|'), ('వె', '|'), ('లిం', 'U'), ('గ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>శరధిశయానుఁడైన హరి సారసబంధుకులంబునందు దా-
 శరథి యనం జనించి బహుసంఖ్యలు మీఱిన లింగమూర్తులన్
@@ -1336,32 +1255,29 @@
 జిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('ర', '|'), ('ధి', '|'), ('శ', '|'), ('యా', 'U'), ('ను', '|'), ('డై', 'U'), ('న', '|'), ('హ', '|'), ('రి', '|'), ('సా', 'U'), ('ర', '|'), ('స', '|'), ('బం', 'U'), ('ధు', '|'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థి', '|'), ('య', '|'), ('నం', 'U'), ('జ', '|'), ('నిం', 'U'), ('చి', '|'), ('బ', '|'), ('హు', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('లు', '|'), ('మీ', 'U'), ('ఱి', '|'), ('న', '|'), ('లిం', 'U'), ('గ', '|'), ('మూ', 'U'), ('ర్తు', '|'), ('లన్', 'U'), ('స', '|'), ('ర', '|'), ('వి', 'U'), ('బ్ర', '|'), ('తి', 'U'), ('ష్ఠ', '|'), ('జే', 'U'), ('సె', '|'), ('న', '|'), ('ట', '|'), ('శ', 'U'), ('క్య', '|'), ('మె', '|'), ('నీ', 'U'), ('య', '|'), ('ధి', '|'), ('క', 'U'), ('త్వ', '|'), ('మె', 'U'), ('న్న', '|'), ('గా', 'U'), ('జి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>గరువముతోడ నిన్ను వెలిగా నిడి దక్షుఁడు జన్న మొక్కెడన్
 హరిహయపుండరీకనయనాబ్జభవాదులఁ గూర్చి చేయుచో
@@ -1369,32 +1285,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('రు', '|'), ('వ', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('ని', 'U'), ('న్ను', '|'), ('వె', '|'), ('లి', '|'), ('గా', 'U'), ('ని', '|'), ('డి', '|'), ('ద', 'U'), ('క్షు', '|'), ('డు', '|'), ('జ', 'U'), ('న్న', '|'), ('మొ', 'U'), ('క్కె', '|'), ('డన్', 'U'), ('హ', '|'), ('రి', '|'), ('హ', '|'), ('య', '|'), ('పుం', 'U'), ('డ', '|'), ('రీ', 'U'), ('క', '|'), ('న', '|'), ('య', '|'), ('నా', 'U'), ('బ్జ', '|'), ('భ', '|'), ('వా', 'U'), ('దు', '|'), ('ల', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('చే', 'U'), ('యు', '|'), ('చో', 'U'), ('న', '|'), ('రు', '|'), ('దు', '|'), ('గ', '|'), ('వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ద్ర', '|'), ('భ', '|'), ('య', '|'), ('దా', 'U'), ('కృ', '|'), ('తి', '|'), ('గై', 'U'), ('కొ', '|'), ('ని', '|'), ('సం', 'U'), ('హ', '|'), ('రిం', 'U'), ('ప', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>కరమరుదార నల్వఁ దనకన్న ఘనుండగు వేల్పు లేఁడటం-
 చురుగతి దేవతాసభ దురూక్తులు బల్కఁగ నల్గి వాని దు-
@@ -1402,32 +1315,29 @@
 జిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('మ', '|'), ('రు', '|'), ('దా', 'U'), ('ర', '|'), ('న', 'U'), ('ల్వ', '|'), ('ద', '|'), ('న', '|'), ('క', 'U'), ('న్న', '|'), ('ఘ', '|'), ('నుం', 'U'), ('డ', '|'), ('గు', '|'), ('వే', 'U'), ('ల్పు', '|'), ('లే', 'U'), ('డ', '|'), ('టం', 'U'), ('చు', '|'), ('రు', '|'), ('గ', '|'), ('తి', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('స', '|'), ('భ', '|'), ('దు', '|'), ('రూ', 'U'), ('క్తు', '|'), ('లు', '|'), ('బ', 'U'), ('ల్క', '|'), ('గ', '|'), ('న', 'U'), ('ల్గి', '|'), ('వా', 'U'), ('ని', '|'), ('దు', 'U'), ('ర్భ', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('గ', 'U'), ('ర్వ', '|'), ('భా', 'U'), ('ర', '|'), ('ము', '|'), ('ను', '|'), ('బ', 'U'), ('ల్వ', '|'), ('డి', '|'), ('ద్రుం', 'U'), ('ప', '|'), ('వె', '|'), ('భై', 'U'), ('ర', '|'), ('వా', 'U'), ('కృ', '|'), ('తిన్', 'U'), ('జి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>అరయ మృకండుసూనుఁడు నిరంతరమృత్యుభయాకులార్తుఁడై
 వెఱవు దలిర్ప నిన్ శరణు వేడిన మిత్తి నడంచి యమ్మునీ-
@@ -1435,32 +1345,29 @@
 జిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ర', '|'), ('య', '|'), ('మృ', '|'), ('కం', 'U'), ('డు', '|'), ('సూ', 'U'), ('ను', '|'), ('డు', '|'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('ర', '|'), ('మృ', 'U'), ('త్యు', '|'), ('భ', '|'), ('యా', 'U'), ('కు', '|'), ('లా', 'U'), ('ర్తు', '|'), ('డై', 'U'), ('వె', '|'), ('ఱ', '|'), ('వు', '|'), ('ద', '|'), ('లి', 'U'), ('ర్ప', '|'), ('నిన్', 'U'), ('శ', '|'), ('ర', '|'), ('ణు', '|'), ('వే', 'U'), ('డి', '|'), ('న', '|'), ('మి', 'U'), ('త్తి', '|'), ('న', '|'), ('డం', 'U'), ('చి', '|'), ('య', 'U'), ('మ్ము', '|'), ('నీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('సు', '|'), ('తు', 'U'), ('బ్రో', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('జీ', 'U'), ('వు', '|'), ('ని', '|'), ('జే', 'U'), ('సి', '|'), ('వా', 'U'), ('సి', '|'), ('గా', 'U'), ('జి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>ముఱియుచుఁ గాశికాపురిని మూఢత బాహువులెత్తి ధారుణీ-
 ధరములకన్న నెవ్వఁడును దైవము లేడని పల్కు నప్పరా-
@@ -1468,32 +1375,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ఱి', '|'), ('యు', '|'), ('చు', '|'), ('గా', 'U'), ('శి', '|'), ('కా', 'U'), ('పు', '|'), ('రి', '|'), ('ని', '|'), ('మూ', 'U'), ('ఢ', '|'), ('త', '|'), ('బా', 'U'), ('హు', '|'), ('వు', '|'), ('లె', 'U'), ('త్తి', '|'), ('ధా', 'U'), ('రు', '|'), ('ణీ', 'U'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('క', 'U'), ('న్న', '|'), ('నె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('ను', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('లే', 'U'), ('డ', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కు', '|'), ('న', 'U'), ('ప్ప', '|'), ('రా', 'U'), ('శ', '|'), ('ర', '|'), ('సు', '|'), ('తు', '|'), ('బా', 'U'), ('హు', '|'), ('యు', 'U'), ('గ్మ', '|'), ('క', '|'), ('ము', 'U'), ('స్తం', 'U'), ('భ', '|'), ('న', '|'), ('మొం', 'U'), ('ద', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('కుం', 'U'), ('చ', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>అరయ నశేషలోకముల కాఢ్యుఁడ వీవె నిజంబు బాలిశు-
 ల్మెఱమెఱగాఁ దలంత్రు కడిమిం బహిరంతరలోకరక్షకై
@@ -1501,32 +1405,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ర', '|'), ('య', '|'), ('న', '|'), ('శే', 'U'), ('ష', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('కా', 'U'), ('ఢ్యు', '|'), ('డ', '|'), ('వీ', 'U'), ('వె', '|'), ('ని', '|'), ('జం', 'U'), ('బు', '|'), ('బా', 'U'), ('లి', '|'), ('శు', 'U'), ('ల్మె', '|'), ('ఱ', '|'), ('మె', '|'), ('ఱ', '|'), ('గా', 'U'), ('ద', '|'), ('లం', 'U'), ('త్రు', '|'), ('క', '|'), ('డి', '|'), ('మిం', 'U'), ('బ', '|'), ('హి', '|'), ('రం', 'U'), ('త', '|'), ('ర', '|'), ('లో', 'U'), ('క', '|'), ('ర', 'U'), ('క్ష', '|'), ('కై', 'U'), ('గ', '|'), ('ర', '|'), ('ళ', '|'), ('ము', '|'), ('కం', 'U'), ('ఠ', '|'), ('మూ', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('గ', 'U'), ('ట్టి', '|'), ('గ', '|'), ('ని', 'U'), ('ల్పు', '|'), ('టె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('రే', 'U'), ('మొ', '|'), ('కో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>హరి నరసింహరూపధరుఁడై సమరాగ్రమహోగ్రభంగి న-
 బ్బురమొదవన్ హిరణ్యకశిపు న్బరిమార్చి చెలంగుచున్నచో
@@ -1534,32 +1435,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('రూ', 'U'), ('ప', '|'), ('ధ', '|'), ('రు', '|'), ('డై', 'U'), ('స', '|'), ('మ', '|'), ('రా', 'U'), ('గ్ర', '|'), ('మ', '|'), ('హో', 'U'), ('గ్ర', '|'), ('భం', 'U'), ('గి', '|'), ('న', 'U'), ('బ్బు', '|'), ('ర', '|'), ('మొ', '|'), ('ద', '|'), ('వన్', 'U'), ('హి', '|'), ('ర', 'U'), ('ణ్య', '|'), ('క', '|'), ('శి', '|'), ('పు', 'U'), ('న్బ', '|'), ('రి', '|'), ('మా', 'U'), ('ర్చి', '|'), ('చె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('స', '|'), ('ర', '|'), ('గ', '|'), ('ద', '|'), ('దు', 'U'), ('గ్ర', '|'), ('తం', 'U'), ('శ', '|'), ('ర', '|'), ('భ', '|'), ('సా', 'U'), ('ళు', '|'), ('వ', '|'), ('దే', 'U'), ('హు', '|'), ('డ', '|'), ('వై', 'U'), ('య', '|'), ('డం', 'U'), ('ప', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>సరసవిహారలీల విటజంగమరూపముతోడ నేగి య-
 బ్బురముగ మున్ను భల్లణుని పత్నిని చల్లమదేవిఁ గోరి యా
@@ -1567,32 +1465,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('స', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('లీ', 'U'), ('ల', '|'), ('వి', '|'), ('ట', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నే', 'U'), ('గి', '|'), ('య', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('ము', 'U'), ('న్ను', '|'), ('భ', 'U'), ('ల్ల', '|'), ('ణు', '|'), ('ని', '|'), ('ప', 'U'), ('త్ని', '|'), ('ని', '|'), ('చ', 'U'), ('ల్ల', '|'), ('మ', '|'), ('దే', 'U'), ('వి', '|'), ('గో', 'U'), ('రి', '|'), ('యా', 'U'), ('గు', '|'), ('రు', '|'), ('కు', '|'), ('చ', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', 'U'), ('న్ని', '|'), ('ల', '|'), ('వె', '|'), ('గో', 'U'), ('మె', '|'), ('ల', '|'), ('య', 'U'), ('న్నె', '|'), ('ల', '|'), ('నా', 'U'), ('ళ్ల', '|'), ('ప', 'U'), ('ట్టి', '|'), ('వై', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>ఇరవుగ దారుకావనమునీంద్రవధూతిలకంబుల న్మనో-
 హరవటుకాకృతిం బొలిచి యబ్జశరాహవలీలలం గడున్
@@ -1600,32 +1495,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ర', '|'), ('వు', '|'), ('గ', '|'), ('దా', 'U'), ('రు', '|'), ('కా', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్ర', '|'), ('వ', '|'), ('ధూ', 'U'), ('తి', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('వ', '|'), ('టు', '|'), ('కా', 'U'), ('కృ', '|'), ('తిం', 'U'), ('బొ', '|'), ('లి', '|'), ('చి', '|'), ('య', 'U'), ('బ్జ', '|'), ('శ', '|'), ('రా', 'U'), ('హ', '|'), ('వ', '|'), ('లీ', 'U'), ('ల', '|'), ('లం', 'U'), ('గ', '|'), ('డున్', 'U'), ('గ', '|'), ('ర', '|'), ('చి', '|'), ('న', '|'), ('నీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ర', '|'), ('తి', '|'), ('కౌ', 'U'), ('శ', '|'), ('ల', '|'), ('ముల్', 'U'), ('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('ప', '|'), ('శ', 'U'), ('క్య', '|'), ('మే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>సరభసలీల మున్ముసలిజంగమువై చిరితొండనంబి మం-
 దిరమున కేఁగి తత్తనయునిం బొలకై వధియింపఁజేసి చె-
@@ -1633,32 +1525,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('భ', '|'), ('స', '|'), ('లీ', 'U'), ('ల', '|'), ('ము', 'U'), ('న్ము', '|'), ('స', '|'), ('లి', '|'), ('జం', 'U'), ('గ', '|'), ('ము', '|'), ('వై', 'U'), ('చి', '|'), ('రి', '|'), ('తొం', 'U'), ('డ', '|'), ('నం', 'U'), ('బి', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('కే', 'U'), ('గి', '|'), ('త', 'U'), ('త్త', '|'), ('న', '|'), ('యు', '|'), ('నిం', 'U'), ('బొ', '|'), ('ల', '|'), ('కై', 'U'), ('వ', '|'), ('ధి', '|'), ('యిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('చె', 'U'), ('చ్చె', '|'), ('ర', '|'), ('ని', '|'), ('జ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('చూ', 'U'), ('పి', '|'), ('కృ', '|'), ('ప', '|'), ('చి', 'U'), ('ప్పి', '|'), ('ల', '|'), ('వా', 'U'), ('ని', '|'), ('గృ', '|'), ('తా', 'U'), ('ర్థు', '|'), ('జే', 'U'), ('య', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>దొరకొని చెప్పుగాల తలఁ ద్రొక్కి యొకించుక నంజు డెంగిటన్
 బొరసిన దప్పనంబొసఁగి పుక్కిటనీ ర్మెయిఁ జిల్కు బోయకున్
@@ -1666,32 +1555,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('దొ', '|'), ('ర', '|'), ('కొ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('ల', '|'), ('త', '|'), ('ల', '|'), ('ద్రొ', 'U'), ('క్కి', '|'), ('యొ', '|'), ('కిం', 'U'), ('చు', '|'), ('క', '|'), ('నం', 'U'), ('జు', '|'), ('డెం', 'U'), ('గి', '|'), ('టన్', 'U'), ('బొ', '|'), ('ర', '|'), ('సి', '|'), ('న', '|'), ('ద', 'U'), ('ప్ప', '|'), ('నం', 'U'), ('బొ', '|'), ('స', '|'), ('గి', '|'), ('పు', 'U'), ('క్కి', '|'), ('ట', '|'), ('నీ', 'U'), ('ర్మె', '|'), ('యి', '|'), ('జి', 'U'), ('ల్కు', '|'), ('బో', 'U'), ('య', '|'), ('కున్', 'U'), ('స', '|'), ('ర', '|'), ('గు', '|'), ('న', '|'), ('మో', 'U'), ('క్ష', '|'), ('మి', 'U'), ('చ్చి', '|'), ('త', '|'), ('ట', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('కో', 'U'), ('టు', '|'), ('ల', '|'), ('కి', 'U'), ('చ్చు', '|'), ('ట', 'U'), ('బ్ర', '|'), ('మే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>ఇరుసతలోకము ల్మహిమ నేలెడు స్వామివి నిన్ను వాకిటన్
 దరలకయుండ గాపునిచి ధన్యతఁ జెందిన బాణదైత్యుఁ డే
@@ -1699,32 +1585,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('రు', '|'), ('స', '|'), ('త', '|'), ('లో', 'U'), ('క', '|'), ('ము', 'U'), ('ల్మ', '|'), ('హి', '|'), ('మ', '|'), ('నే', 'U'), ('లె', '|'), ('డు', 'U'), ('స్వా', 'U'), ('మి', '|'), ('వి', '|'), ('ని', 'U'), ('న్ను', '|'), ('వా', 'U'), ('కి', '|'), ('టన్', 'U'), ('ద', '|'), ('ర', '|'), ('ల', '|'), ('క', '|'), ('యుం', 'U'), ('డ', '|'), ('గా', 'U'), ('పు', '|'), ('ని', '|'), ('చి', '|'), ('ధ', 'U'), ('న్య', '|'), ('త', '|'), ('జెం', 'U'), ('ది', '|'), ('న', '|'), ('బా', 'U'), ('ణ', '|'), ('దై', 'U'), ('త్యు', '|'), ('డే', 'U'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('ని', '|'), ('ని', 'U'), ('న్ను', '|'), ('ము', 'U'), ('న్నె', '|'), ('ర', '|'), ('వు', 'U'), ('గ్రా', 'U'), ('ల', '|'), ('గ', '|'), ('బూ', 'U'), ('జ', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('నో', 'U'), ('క', '|'), ('దా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>మెరమెర లేక నీవు మును మేదరిసెట్టియు బోయలెంకయున్
 బెరసుకులంపు చాకలియు బెట్టిన యోగిర మారగించితౌ
@@ -1732,32 +1615,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('మె', '|'), ('ర', '|'), ('మె', '|'), ('ర', '|'), ('లే', 'U'), ('క', '|'), ('నీ', 'U'), ('వు', '|'), ('ము', '|'), ('ను', '|'), ('మే', 'U'), ('ద', '|'), ('రి', '|'), ('సె', 'U'), ('ట్టి', '|'), ('యు', '|'), ('బో', 'U'), ('య', '|'), ('లెం', 'U'), ('క', '|'), ('యున్', 'U'), ('బె', '|'), ('ర', '|'), ('సు', '|'), ('కు', '|'), ('లం', 'U'), ('పు', '|'), ('చా', 'U'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('యో', 'U'), ('గి', '|'), ('ర', '|'), ('మా', 'U'), ('ర', '|'), ('గిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('స', '|'), ('రి', '|'), ('స', '|'), ('రి', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('ర్చ', '|'), ('న', '|'), ('లు', '|'), ('స', 'U'), ('ల్పె', '|'), ('డు', '|'), ('చో', 'U'), ('ని', '|'), ('య', '|'), ('మం', 'U'), ('బు', '|'), ('లే', 'U'), ('ల', '|'), ('యా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>పురుడె గణింప భక్తసులభుండవు నీకు నిలింపులెల్ల కి-
 న్నరనరుఁ డెట్టు లర్చన లొనర్చెనొ కాని కడుం గడిందిగా
@@ -1765,32 +1645,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('రు', '|'), ('డె', '|'), ('గ', '|'), ('ణిం', 'U'), ('ప', '|'), ('భ', 'U'), ('క్త', '|'), ('సు', '|'), ('ల', '|'), ('భుం', 'U'), ('డ', '|'), ('వు', '|'), ('నీ', 'U'), ('కు', '|'), ('ని', '|'), ('లిం', 'U'), ('పు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('కి', 'U'), ('న్న', '|'), ('ర', '|'), ('న', '|'), ('రు', '|'), ('డె', 'U'), ('ట్టు', '|'), ('ల', 'U'), ('ర్చ', '|'), ('న', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('నొ', '|'), ('కా', 'U'), ('ని', '|'), ('క', '|'), ('డుం', 'U'), ('గ', '|'), ('డిం', 'U'), ('ది', '|'), ('గా', 'U'), ('సె', '|'), ('ర', '|'), ('బ', '|'), ('డి', '|'), ('చే', 'U'), ('సి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('వి', '|'), ('చి', 'U'), ('త్ర', '|'), ('ధ', '|'), ('నా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', 'U'), ('త్వ', '|'), ('మి', 'U'), ('వ్వ', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>గరళము కంఠమూలమున గట్టిగ దాల్చుట నీకు నంగదల్
 బరగునటంచు రుద్రపశుపత్యభిధానుఁ డెదం గలంగఁగా
@@ -1798,32 +1675,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('ర', '|'), ('ళ', '|'), ('ము', '|'), ('కం', 'U'), ('ఠ', '|'), ('మూ', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('గ', 'U'), ('ట్టి', '|'), ('గ', '|'), ('దా', 'U'), ('ల్చు', '|'), ('ట', '|'), ('నీ', 'U'), ('కు', '|'), ('నం', 'U'), ('గ', '|'), ('దల్', 'U'), ('బ', '|'), ('ర', '|'), ('గు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('రు', '|'), ('ద్ర', '|'), ('ప', '|'), ('శు', '|'), ('ప', 'U'), ('త్య', '|'), ('భి', '|'), ('ధా', 'U'), ('ను', '|'), ('డె', '|'), ('దం', 'U'), ('గ', '|'), ('లం', 'U'), ('గ', '|'), ('గా', 'U'), ('నొ', '|'), ('రి', '|'), ('మె', '|'), ('ర', '|'), ('నం', 'U'), ('గ', '|'), ('పీ', 'U'), ('ఠ', '|'), ('ము', '|'), ('న', '|'), ('నుం', 'U'), ('చ', '|'), ('వె', '|'), ('యా', 'U'), ('త', '|'), ('ని', '|'), ('శా', 'U'), ('శ్వ', '|'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>విరసముతోడ నిన్ శిలల వ్రేసియు రోకటఁ గ్రుమ్మియున్ గృహాం-
 తరమునఁ గాపువెట్టియును సిద్ధముగా వెలివెట్టు కుంటిన-
@@ -1831,32 +1705,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నిన్', 'U'), ('శి', '|'), ('ల', '|'), ('ల', 'U'), ('వ్రే', 'U'), ('సి', '|'), ('యు', '|'), ('రో', 'U'), ('క', '|'), ('ట', 'U'), ('గ్రు', 'U'), ('మ్మి', '|'), ('యున్', 'U'), ('గృ', '|'), ('హాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('గా', 'U'), ('పు', '|'), ('వె', 'U'), ('ట్టి', '|'), ('యు', '|'), ('ను', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('గా', 'U'), ('వె', '|'), ('లి', '|'), ('వె', 'U'), ('ట్టు', '|'), ('కుం', 'U'), ('టి', '|'), ('న', 'U'), ('ల్ది', '|'), ('ర', '|'), ('గ', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('ను', '|'), ('లే', 'U'), ('త', '|'), ('గు', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్యు', '|'), ('లై', 'U'), ('రి', '|'), ('మేల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>సురపతి వేణువుం గలిమికొమ్మమగండు మృదంగవాద్య మం-
 బురుహభవుండు తాళమును పొత్తముముత్తవ వీణఁ బూనఁగా
@@ -1864,32 +1735,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ర', '|'), ('ప', '|'), ('తి', '|'), ('వే', 'U'), ('ణు', '|'), ('వుం', 'U'), ('గ', '|'), ('లి', '|'), ('మి', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('మ', '|'), ('గం', 'U'), ('డు', '|'), ('మృ', '|'), ('దం', 'U'), ('గ', '|'), ('వా', 'U'), ('ద్య', '|'), ('మం', 'U'), ('బు', '|'), ('రు', '|'), ('హ', '|'), ('భ', '|'), ('వుం', 'U'), ('డు', '|'), ('తా', 'U'), ('ళ', '|'), ('ము', '|'), ('ను', '|'), ('పొ', 'U'), ('త్త', '|'), ('ము', '|'), ('ము', 'U'), ('త్త', '|'), ('వ', '|'), ('వీ', 'U'), ('ణ', '|'), ('బూ', 'U'), ('న', '|'), ('గా', 'U'), ('హ', '|'), ('రి', '|'), ('స', '|'), ('తి', '|'), ('బా', 'U'), ('డి', '|'), ('నం', 'U'), ('జ', '|'), ('ద', '|'), ('ల', '|'), ('న', 'U'), ('ద్భు', '|'), ('త', '|'), ('తాం', 'U'), ('డ', '|'), ('వ', '|'), ('కే', 'U'), ('ళి', '|'), ('స', 'U'), ('ల్పి', '|'), ('తౌ', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>ఉరగము లెమ్ములుం బునుక లుగ్రపిశాచములుం గళాసముల్
 గరళము కంఠమూలమున గట్టిగ నెప్పుడు గల్గియుండియున్
@@ -1897,32 +1765,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('ర', '|'), ('గ', '|'), ('ము', '|'), ('లె', 'U'), ('మ్ము', '|'), ('లుం', 'U'), ('బు', '|'), ('ను', '|'), ('క', '|'), ('లు', 'U'), ('గ్ర', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('ము', '|'), ('లుం', 'U'), ('గ', '|'), ('ళా', 'U'), ('స', '|'), ('ముల్', 'U'), ('గ', '|'), ('ర', '|'), ('ళ', '|'), ('ము', '|'), ('కం', 'U'), ('ఠ', '|'), ('మూ', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('గ', 'U'), ('ట్టి', '|'), ('గ', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యుం', 'U'), ('డి', '|'), ('యున్', 'U'), ('బ', '|'), ('ర', '|'), ('మ', '|'), ('శి', '|'), ('వా', 'U'), ('కృ', '|'), ('తిం', 'U'), ('బొ', '|'), ('లు', '|'), ('చు', '|'), ('భ', '|'), ('ద్ర', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చె', '|'), ('ద', '|'), ('వ', 'U'), ('బ్బు', '|'), ('రం', 'U'), ('బ', '|'), ('హా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>ఇరవుగ నెల్లలోకముల నేలెడు స్వామివి నీవు కూర్మితో
 దొరతనమెల్లఁ బో కడచి తుచ్ఛపుజాలరిపూపకన్నియన్
@@ -1930,32 +1795,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ర', '|'), ('వు', '|'), ('గ', '|'), ('నె', 'U'), ('ల్ల', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('లె', '|'), ('డు', 'U'), ('స్వా', 'U'), ('మి', '|'), ('వి', '|'), ('నీ', 'U'), ('వు', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('తో', 'U'), ('దొ', '|'), ('ర', '|'), ('త', '|'), ('న', '|'), ('మె', 'U'), ('ల్ల', '|'), ('బో', 'U'), ('క', '|'), ('డ', '|'), ('చి', '|'), ('తు', 'U'), ('చ్ఛ', '|'), ('పు', '|'), ('జా', 'U'), ('ల', '|'), ('రి', '|'), ('పూ', 'U'), ('ప', '|'), ('క', 'U'), ('న్ని', '|'), ('యన్', 'U'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('బె', 'U'), ('ట్టు', '|'), ('కొం', 'U'), ('టి', '|'), ('వ', '|'), ('ట', '|'), ('చి', 'U'), ('త్ర', '|'), ('ము', '|'), ('లౌ', 'U'), ('ర', '|'), ('భ', '|'), ('వ', 'U'), ('ద్వి', '|'), ('లా', 'U'), ('స', '|'), ('ముల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>హరుఁడు మురారి యబ్జభవుఁ డాఢ్యులటంచు పురందరుండు దే-
 వర యనుచు న్విభావసుఁడు వహ్నియు వేల్పులటంచు నెంత్రు బు-
@@ -1963,32 +1825,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రు', '|'), ('డు', '|'), ('ము', '|'), ('రా', 'U'), ('రి', '|'), ('య', 'U'), ('బ్జ', '|'), ('భ', '|'), ('వు', '|'), ('డా', 'U'), ('ఢ్యు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('పు', '|'), ('రం', 'U'), ('ద', '|'), ('రుం', 'U'), ('డు', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్వి', '|'), ('భా', 'U'), ('వ', '|'), ('సు', '|'), ('డు', '|'), ('వ', 'U'), ('హ్ని', '|'), ('యు', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('నెం', 'U'), ('త్రు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('ర', '|'), ('హి', '|'), ('త', '|'), ('మా', 'U'), ('న', '|'), ('వు', 'U'), ('ల్ప', '|'), ('శు', '|'), ('ప', '|'), ('తి', 'U'), ('త్వ', '|'), ('ము', '|'), ('నీ', 'U'), ('యె', '|'), ('డ', '|'), ('గ', 'U'), ('ల్గు', '|'), ('టె', 'U'), ('న్న', '|'), ('కే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>సరవి విధాతరూపమున సర్వచరాచరముల్ సృజించి శ్రీ-
 హరివయి బ్రోదిచేసి నిటలాక్షుఁడవై యడఁగింపుచుందు వ-
@@ -1996,32 +1855,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('వి', '|'), ('వి', '|'), ('ధా', 'U'), ('త', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('స', 'U'), ('ర్వ', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('ముల్', 'U'), ('సృ', '|'), ('జిం', 'U'), ('చి', 'U'), ('శ్రీ', 'U'), ('హ', '|'), ('రి', '|'), ('వ', '|'), ('యి', 'U'), ('బ్రో', 'U'), ('ది', '|'), ('చే', 'U'), ('సి', '|'), ('ని', '|'), ('ట', '|'), ('లా', 'U'), ('క్షు', '|'), ('డ', '|'), ('వై', 'U'), ('య', '|'), ('డ', '|'), ('గిం', 'U'), ('పు', '|'), ('చుం', 'U'), ('దు', '|'), ('వ', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('జ', '|'), ('న', '|'), ('న', '|'), ('పో', 'U'), ('ష', '|'), ('ణ', '|'), ('నా', 'U'), ('శ', '|'), ('న', '|'), ('క', 'U'), ('ర్త', '|'), ('వా', 'U'), ('ర', '|'), ('యన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>శరనిధికన్యనాగ హిమశైలతనూజయనంగ వాణినాఁ
 బరగు వధూట్లఁ గూడి భవపాలననాశము లోలిఁ జేయుచున్
@@ -2029,32 +1885,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('ర', '|'), ('ని', '|'), ('ధి', '|'), ('క', 'U'), ('న్య', '|'), ('నా', 'U'), ('గ', '|'), ('హి', '|'), ('మ', '|'), ('శై', 'U'), ('ల', '|'), ('త', '|'), ('నూ', 'U'), ('జ', '|'), ('య', '|'), ('నం', 'U'), ('గ', '|'), ('వా', 'U'), ('ణి', '|'), ('నా', 'U'), ('బ', '|'), ('ర', '|'), ('గు', '|'), ('వ', '|'), ('ధూ', 'U'), ('ట్ల', '|'), ('గూ', 'U'), ('డి', '|'), ('భ', '|'), ('వ', '|'), ('పా', 'U'), ('ల', '|'), ('న', '|'), ('నా', 'U'), ('శ', '|'), ('ము', '|'), ('లో', 'U'), ('లి', '|'), ('జే', 'U'), ('యు', '|'), ('చున్', 'U'), ('హ', '|'), ('రి', '|'), ('హ', '|'), ('ర', '|'), ('ధా', 'U'), ('తృ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('గు', '|'), ('నా', 'U'), ('ఢ్యు', '|'), ('ని', '|'), ('నుం', 'U'), ('గ', '|'), ('ను', '|'), ('గొం', 'U'), ('దు', '|'), ('నీ', 'U'), ('శ్వ', '|'), ('రా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>పురుషులలోన విప్రుఁడును పుష్పకదంబములోన జాజియున్
 దరువులలోన రావియును దానచయంబుల నన్నదానమున్
@@ -2062,32 +1915,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('రు', '|'), ('షు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('వి', 'U'), ('ప్రు', '|'), ('డు', '|'), ('ను', '|'), ('పు', 'U'), ('ష్ప', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('జా', 'U'), ('జి', '|'), ('యున్', 'U'), ('ద', '|'), ('రు', '|'), ('వు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('రా', 'U'), ('వి', '|'), ('యు', '|'), ('ను', '|'), ('దా', 'U'), ('న', '|'), ('చ', '|'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('న', 'U'), ('న్న', '|'), ('దా', 'U'), ('న', '|'), ('మున్', 'U'), ('ధ', '|'), ('ర', '|'), ('ణి', 'U'), ('బ్ర', '|'), ('శ', 'U'), ('స్తి', '|'), ('గ', 'U'), ('న్న', 'U'), ('ప్రి', '|'), ('య', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('లం', 'U'), ('ద', '|'), ('ధి', '|'), ('కుం', 'U'), ('డ', '|'), ('వీ', 'U'), ('వ', '|'), ('యా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>పరుసము సోకి లోహము శుభస్థితి బంగరమైన రీతి స-
 ద్గురుకరుణానిరీక్షణ మకుంఠితలీల నొకింత సోకినన్
@@ -2095,32 +1945,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('స', '|'), ('ము', '|'), ('సో', 'U'), ('కి', '|'), ('లో', 'U'), ('హ', '|'), ('ము', '|'), ('శు', '|'), ('భ', 'U'), ('స్థి', '|'), ('తి', '|'), ('బం', 'U'), ('గ', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ని', '|'), ('రీ', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మ', '|'), ('కుం', 'U'), ('ఠి', '|'), ('త', '|'), ('లీ', 'U'), ('ల', '|'), ('నొ', '|'), ('కిం', 'U'), ('త', '|'), ('సో', 'U'), ('కి', '|'), ('నన్', 'U'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('బు', '|'), ('ధ', '|'), ('జ', '|'), ('న', 'U'), ('స్తు', '|'), ('తు', '|'), ('డై', 'U'), ('ని', '|'), ('ను', '|'), ('జెం', 'U'), ('దు', '|'), ('బో', 'U'), ('తు', '|'), ('దిన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>అరయఁగ నీరబుద్బుదములట్ల నశించుచునుండు మేనులున్
 శరధితరంగమాలికల చందమునం గనుపట్టు ఠీవులు
@@ -2128,32 +1975,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('నీ', 'U'), ('ర', '|'), ('బు', 'U'), ('ద్బు', '|'), ('ద', '|'), ('ము', '|'), ('ల', 'U'), ('ట్ల', '|'), ('న', '|'), ('శిం', 'U'), ('చు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('మే', 'U'), ('ను', '|'), ('లున్', 'U'), ('శ', '|'), ('ర', '|'), ('ధి', '|'), ('త', '|'), ('రం', 'U'), ('గ', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('ల', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('నం', 'U'), ('గ', '|'), ('ను', '|'), ('ప', 'U'), ('ట్టు', '|'), ('ఠీ', 'U'), ('వు', '|'), ('లు', 'U'), ('స్థి', '|'), ('ర', '|'), ('మ', '|'), ('ని', '|'), ('న', 'U'), ('మ్మి', '|'), ('ని', 'U'), ('న్గొ', '|'), ('లు', '|'), ('వ', '|'), ('నే', 'U'), ('ర', '|'), ('క', '|'), ('రి', 'U'), ('త్త', '|'), ('న', '|'), ('శిం', 'U'), ('తు', '|'), ('రౌ', 'U'), ('ఖ', '|'), ('లుల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>పొరిఁబొరిఁ బుణ్యభూములకు బోవఁగనేలఁ గడు న్దపోమహా-
 ధ్వరము లొనర్చనేల యుపవాసములన్ గృశియింపనేటికిన్
@@ -2161,32 +2005,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('పొ', '|'), ('రి', '|'), ('బొ', '|'), ('రి', '|'), ('బు', 'U'), ('ణ్య', '|'), ('భూ', 'U'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('బో', 'U'), ('వ', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('గ', '|'), ('డు', 'U'), ('న్ద', '|'), ('పో', 'U'), ('మ', '|'), ('హా', 'U'), ('ధ్వ', '|'), ('ర', '|'), ('ము', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చ', '|'), ('నే', 'U'), ('ల', '|'), ('యు', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('లన్', 'U'), ('గృ', '|'), ('శి', '|'), ('యిం', 'U'), ('ప', '|'), ('నే', 'U'), ('టి', '|'), ('కిన్', 'U'), ('హ', '|'), ('ర', '|'), ('హ', '|'), ('ర', '|'), ('యం', 'U'), ('చు', '|'), ('నొ', 'U'), ('క్క', '|'), ('త', '|'), ('రి', '|'), ('నా', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('న', '|'), ('ఘ', 'U'), ('ప్ర', '|'), ('శాం', 'U'), ('తి', '|'), ('కై', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>తరణిసుధామయూఖవసుధాయజమానసమీరణానలాం-
 బరజలమూర్తివైన నిను భక్తిఁ దలంచినవారి కెందులన్
@@ -2194,32 +2035,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ర', '|'), ('ణి', '|'), ('సు', '|'), ('ధా', 'U'), ('మ', '|'), ('యూ', 'U'), ('ఖ', '|'), ('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('య', '|'), ('జ', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('మీ', 'U'), ('ర', '|'), ('ణా', 'U'), ('న', '|'), ('లాం', 'U'), ('బ', '|'), ('ర', '|'), ('జ', '|'), ('ల', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('న', '|'), ('ని', '|'), ('ను', '|'), ('భ', 'U'), ('క్తి', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కెం', 'U'), ('దు', '|'), ('లన్', 'U'), ('ది', '|'), ('రు', '|'), ('గ', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('యే', 'U'), ('శి', '|'), ('ల', '|'), ('ల', '|'), ('ని', 'U'), ('చ్చ', '|'), ('లు', '|'), ('గో', 'U'), ('రి', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ల', '|'), ('యా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>సరవి చతుశ్రుతు ల్నిఖిలశాస్త్రపురాణకథారహస్యముల్
 విరివిగ నిచ్చనిచ్చలును విందుముగాని తలంచిచూడ మా
@@ -2227,32 +2065,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('వి', '|'), ('చ', '|'), ('తు', 'U'), ('శ్రు', '|'), ('తు', 'U'), ('ల్ని', '|'), ('ఖి', '|'), ('ల', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('క', '|'), ('థా', 'U'), ('ర', '|'), ('హ', 'U'), ('స్య', '|'), ('ముల్', 'U'), ('వి', '|'), ('రి', '|'), ('వి', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చ', '|'), ('ని', 'U'), ('చ్చ', '|'), ('లు', '|'), ('ను', '|'), ('విం', 'U'), ('దు', '|'), ('ము', '|'), ('గా', 'U'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('మా', 'U'), ('గు', '|'), ('రు', '|'), ('చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('లా', 'U'), ('న', '|'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('క', '|'), ('యే', 'U'), ('రి', '|'), ('కి', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('ద', '|'), ('యా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>గరుడముఁ గన్న పన్నగనికాయములట్ల మృగేంద్రుఁ గన్న కుం-
 జరములకైవడిన్ దురితసంఘములెల్లఁ దొలంగి పారుచో
@@ -2260,32 +2095,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('రు', '|'), ('డ', '|'), ('ము', '|'), ('గ', 'U'), ('న్న', '|'), ('ప', 'U'), ('న్న', '|'), ('గ', '|'), ('ని', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('ట్ల', '|'), ('మృ', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('గ', 'U'), ('న్న', '|'), ('కుం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('కై', 'U'), ('వ', '|'), ('డిన్', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('దొ', '|'), ('లం', 'U'), ('గి', '|'), ('పా', 'U'), ('రు', '|'), ('చో', 'U'), ('న', '|'), ('రు', '|'), ('డొ', '|'), ('క', '|'), ('చో', 'U'), ('న', '|'), ('నా', 'U'), ('స్థ', '|'), ('న', '|'), ('యి', '|'), ('నం', 'U'), ('భ', '|'), ('వ', '|'), ('దా', 'U'), ('హ్వ', '|'), ('య', '|'), ('ము', 'U'), ('చ్చ', '|'), ('రిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>ధరణిసురు న్వధించిన మదంబున గోనిధనంబొనర్చినం
 గురుసతిఁ గూడినన్ మధువుఁ గ్రోలిన హేమము మ్రుచ్చలించినన్
@@ -2293,32 +2125,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('సు', '|'), ('రు', 'U'), ('న్వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('గో', 'U'), ('ని', '|'), ('ధ', '|'), ('నం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('నం', 'U'), ('గు', '|'), ('రు', '|'), ('స', '|'), ('తి', '|'), ('గూ', 'U'), ('డి', '|'), ('నన్', 'U'), ('మ', '|'), ('ధు', '|'), ('వు', 'U'), ('గ్రో', 'U'), ('లి', '|'), ('న', '|'), ('హే', 'U'), ('మ', '|'), ('ము', '|'), ('మ్రు', 'U'), ('చ్చ', '|'), ('లిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('దొ', '|'), ('ర', '|'), ('కొ', '|'), ('ను', '|'), ('పా', 'U'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('లొ', '|'), ('క', '|'), ('తూ', 'U'), ('రి', '|'), ('శి', '|'), ('వా', 'U'), ('య', '|'), ('ని', '|'), ('నన్', 'U'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>గురుహరిణేక్షణామణినిఁ గూడిన దుష్కలుషాత్ముఁ జంద్రునిన్
 శిరమునఁ బెట్టుకొంటివఁట చెప్పఁగ నబ్రమయారె మేలుమే-
@@ -2326,32 +2155,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('రు', '|'), ('హ', '|'), ('రి', '|'), ('ణే', 'U'), ('క్ష', '|'), ('ణా', 'U'), ('మ', '|'), ('ణి', '|'), ('ని', '|'), ('గూ', 'U'), ('డి', '|'), ('న', '|'), ('దు', 'U'), ('ష్క', '|'), ('లు', '|'), ('షా', 'U'), ('త్ము', '|'), ('జం', 'U'), ('ద్రు', '|'), ('నిన్', 'U'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('బె', 'U'), ('ట్టు', '|'), ('కొం', 'U'), ('టి', '|'), ('వ', '|'), ('ట', '|'), ('చె', 'U'), ('ప్ప', '|'), ('గ', '|'), ('న', 'U'), ('బ్ర', '|'), ('మ', '|'), ('యా', 'U'), ('రె', '|'), ('మే', 'U'), ('లు', '|'), ('మే', 'U'), ('ల్గు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('డ', '|'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('కే', 'U'), ('టి', '|'), ('పా', 'U'), ('ప', '|'), ('ముల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>దురితము లేమిసేయు గ్రహదోషపిశాచరుజామృగోరగో-
 త్కరభయమేల కల్గు నృపతస్కరవహ్నిభయంబులే ప్రియం
@@ -2359,32 +2185,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('దు', '|'), ('రి', '|'), ('త', '|'), ('ము', '|'), ('లే', 'U'), ('మి', '|'), ('సే', 'U'), ('యు', 'U'), ('గ్ర', '|'), ('హ', '|'), ('దో', 'U'), ('ష', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('రు', '|'), ('జా', 'U'), ('మృ', '|'), ('గో', 'U'), ('ర', '|'), ('గో', 'U'), ('త్క', '|'), ('ర', '|'), ('భ', '|'), ('య', '|'), ('మే', 'U'), ('ల', '|'), ('క', 'U'), ('ల్గు', '|'), ('నృ', '|'), ('ప', '|'), ('త', 'U'), ('స్క', '|'), ('ర', '|'), ('వ', 'U'), ('హ్ని', '|'), ('భ', '|'), ('యం', 'U'), ('బు', '|'), ('లే', 'U'), ('ప్రి', '|'), ('యం', 'U'), ('బె', '|'), ('ర', '|'), ('యు', '|'), ('న', '|'), ('రుం', 'U'), ('డొ', '|'), ('క', 'U'), ('ప్డు', '|'), ('ని', '|'), ('ను', '|'), ('బే', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('నె', 'U'), ('మ్మ', '|'), ('ది', '|'), ('సం', 'U'), ('స్మ', '|'), ('రిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>అరదము లందలంబులు హయంబులు రత్నవిభూషణంబు లం-
 బరములు చామరంబులు ద్విపంబులు నాదిగఁ గల్గు ఠీవులు-
@@ -2392,32 +2215,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ర', '|'), ('ద', '|'), ('ము', '|'), ('లం', 'U'), ('ద', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('హ', '|'), ('యం', 'U'), ('బు', '|'), ('లు', '|'), ('ర', 'U'), ('త్న', '|'), ('వి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('లం', 'U'), ('బ', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('చా', 'U'), ('మ', '|'), ('రం', 'U'), ('బు', '|'), ('లు', 'U'), ('ద్వి', '|'), ('పం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('ది', '|'), ('గ', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ఠీ', 'U'), ('వు', '|'), ('లు', 'U'), ('న్బొ', '|'), ('ర', '|'), ('సె', '|'), ('డు', '|'), ('వా', 'U'), ('రు', '|'), ('మి', 'U'), ('మ్ము', '|'), ('ము', '|'), ('ను', '|'), ('బూ', 'U'), ('జ', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('రె', '|'), ('కా', 'U'), ('ర', '|'), ('యా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>వెరవిరవార నేపగిది వేఁడినఁ గానియు నియ్యలేని ము-
 ష్కరనరనాయకాధముల సావడులం బడి ప్రేలువారికిన్
@@ -2425,32 +2245,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ర', '|'), ('వి', '|'), ('ర', '|'), ('వా', 'U'), ('ర', '|'), ('నే', 'U'), ('ప', '|'), ('గి', '|'), ('ది', '|'), ('వే', 'U'), ('డి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('యు', '|'), ('ని', 'U'), ('య్య', '|'), ('లే', 'U'), ('ని', '|'), ('ము', 'U'), ('ష్క', '|'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('నా', 'U'), ('య', '|'), ('కా', 'U'), ('ధ', '|'), ('ము', '|'), ('ల', '|'), ('సా', 'U'), ('వ', '|'), ('డు', '|'), ('లం', 'U'), ('బ', '|'), ('డి', 'U'), ('ప్రే', 'U'), ('లు', '|'), ('వా', 'U'), ('రి', '|'), ('కిన్', 'U'), ('ని', '|'), ('ర', '|'), ('త', '|'), ('కృ', '|'), ('పా', 'U'), ('ర్ద్ర', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('మె', '|'), ('యి', '|'), ('నీ', 'U'), ('వి', '|'), ('డ', '|'), ('క', 'U'), ('న్యు', '|'), ('డొ', '|'), ('సం', 'U'), ('గ', '|'), ('జా', 'U'), ('లు', '|'), ('నే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>సరయువు గృష్ణ నర్మదయు జాహ్నవి బాహుద తుంగభద్ర భా-
 స్కరసుతయు న్సరస్వతియు గౌతమియుం మొదలైన దివ్యని-
@@ -2458,32 +2275,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('యు', '|'), ('వు', '|'), ('గృ', 'U'), ('ష్ణ', '|'), ('న', '|'), ('ర్మ', '|'), ('ద', '|'), ('యు', '|'), ('జా', 'U'), ('హ్న', '|'), ('వి', '|'), ('బా', 'U'), ('హు', '|'), ('ద', '|'), ('తుం', 'U'), ('గ', '|'), ('భ', '|'), ('ద్ర', '|'), ('భా', 'U'), ('స్క', '|'), ('ర', '|'), ('సు', '|'), ('త', '|'), ('యు', 'U'), ('న్స', '|'), ('ర', 'U'), ('స్వ', '|'), ('తి', '|'), ('యు', '|'), ('గౌ', 'U'), ('త', '|'), ('మి', '|'), ('యుం', 'U'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('ది', 'U'), ('వ్య', '|'), ('ని', 'U'), ('ర్ఝ', '|'), ('రు', '|'), ('ల', '|'), ('ను', '|'), ('ము', 'U'), ('న్గు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మొ', '|'), ('క', '|'), ('సా', 'U'), ('రె', '|'), ('శి', '|'), ('వా', 'U'), ('య', '|'), ('ని', '|'), ('నన్', 'U'), ('ల', '|'), ('భిం', 'U'), ('చు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>ధర శ్రుతిమంత్రకోటికిఁ ప్రధానము నాగమమాతయైన య-
 గ్గురుతరమంత్రరాజమునకుం బతి వీవని లోగణింపకే
@@ -2491,32 +2305,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', 'U'), ('శ్రు', '|'), ('తి', '|'), ('మం', 'U'), ('త్ర', '|'), ('కో', 'U'), ('టి', '|'), ('కి', 'U'), ('ప్ర', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('నా', 'U'), ('గ', '|'), ('మ', '|'), ('మా', 'U'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('య', 'U'), ('గ్గు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('ము', '|'), ('న', '|'), ('కుం', 'U'), ('బ', '|'), ('తి', '|'), ('వీ', 'U'), ('వ', '|'), ('ని', '|'), ('లో', 'U'), ('గ', '|'), ('ణిం', 'U'), ('ప', '|'), ('కే', 'U'), ('వె', '|'), ('క', '|'), ('వ', '|'), ('రి', '|'), ('కొ', 'U'), ('ల్తు', '|'), ('రౌ', 'U'), ('ఖ', '|'), ('లు', '|'), ('లు', '|'), ('వెం', 'U'), ('గ', '|'), ('ళు', '|'), ('లై', 'U'), ('కు', '|'), ('ఱ', '|'), ('కు', 'U'), ('ఱ్ఱ', '|'), ('వే', 'U'), ('ల్పు', '|'), ('లన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>హరువులు దీర్ప నీవు హృదయంబున నెప్పుడు గల్గియుండఁగా
 వెరవరి యందు నందులకు వేరడులై చనుచుంద్రు పామరుల్
@@ -2524,32 +2335,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రు', '|'), ('వు', '|'), ('లు', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('నీ', 'U'), ('వు', '|'), ('హృ', '|'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యుం', 'U'), ('డ', '|'), ('గా', 'U'), ('వె', '|'), ('ర', '|'), ('వ', '|'), ('రి', '|'), ('యం', 'U'), ('దు', '|'), ('నం', 'U'), ('దు', '|'), ('ల', '|'), ('కు', '|'), ('వే', 'U'), ('ర', '|'), ('డు', '|'), ('లై', 'U'), ('చ', '|'), ('ను', '|'), ('చుం', 'U'), ('ద్రు', '|'), ('పా', 'U'), ('మ', '|'), ('రుల్', 'U'), ('నె', '|'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('వె', 'U'), ('న్న', '|'), ('చే', 'U'), ('తి', '|'), ('ని', '|'), ('డి', '|'), ('నే', 'U'), ('తి', '|'), ('కి', '|'), ('ద్రి', 'U'), ('మ్మ', '|'), ('రు', '|'), ('కై', 'U'), ('వ', '|'), ('డిం', 'U'), ('గ', '|'), ('టా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>ఉరగము గాలిఁ గ్రోలి గుహనుండదె యాకులు నించుకోనల-
 న్దిరుగదె మేఁక నీళ్ల వెనుదీయకఁ గృంకదె కప్ప యెవ్వరే-
@@ -2557,32 +2365,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('ర', '|'), ('గ', '|'), ('ము', '|'), ('గా', 'U'), ('లి', 'U'), ('గ్రో', 'U'), ('లి', '|'), ('గు', '|'), ('హ', '|'), ('నుం', 'U'), ('డ', '|'), ('దె', '|'), ('యా', 'U'), ('కు', '|'), ('లు', '|'), ('నిం', 'U'), ('చు', '|'), ('కో', 'U'), ('న', '|'), ('ల', 'U'), ('న్ది', '|'), ('రు', '|'), ('గ', '|'), ('దె', '|'), ('మే', 'U'), ('క', '|'), ('నీ', 'U'), ('ళ్ల', '|'), ('వె', '|'), ('ను', '|'), ('దీ', 'U'), ('య', '|'), ('క', '|'), ('గృం', 'U'), ('క', '|'), ('దె', '|'), ('క', 'U'), ('ప్ప', '|'), ('యె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('జ', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('ని', '|'), ('ను', '|'), ('గ', 'U'), ('న్గొ', '|'), ('న', '|'), ('కు', 'U'), ('న్న', '|'), ('బ', '|'), ('రం', 'U'), ('బు', '|'), ('లే', 'U'), ('దు', '|'), ('గా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>హరహర! మేరుభూధరమునంత పదార్థము సంగ్రహించిన-
 న్సురనగరాభిపత్యము త్రిశుద్ధిగ నబ్బిన రంభయంత సుం-
@@ -2590,32 +2395,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('ర', '|'), ('హ', '|'), ('ర', '|'), ('మే', 'U'), ('రు', '|'), ('భూ', 'U'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('త', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్సు', '|'), ('ర', '|'), ('న', '|'), ('గ', '|'), ('రా', 'U'), ('భి', '|'), ('ప', 'U'), ('త్య', '|'), ('ము', 'U'), ('త్రి', '|'), ('శు', 'U'), ('ద్ధి', '|'), ('గ', '|'), ('న', 'U'), ('బ్బి', '|'), ('న', '|'), ('రం', 'U'), ('భ', '|'), ('యం', 'U'), ('త', '|'), ('సుం', 'U'), ('ద', '|'), ('రి', '|'), ('ని', '|'), ('జ', '|'), ('భా', 'U'), ('ర్య', '|'), ('యై', 'U'), ('న', '|'), ('మ', '|'), ('ది', '|'), ('దా', 'U'), ('ర్కొ', '|'), ('ను', '|'), ('తృ', 'U'), ('ష్ణ', '|'), ('య', '|'), ('డం', 'U'), ('గ', '|'), ('దే', 'U'), ('రి', '|'), ('కిన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>బురుదను హాళితో నురెడిపుర్వు మెలంగుచునుండి యెప్పుడు-
 న్బురుద యొకింతయైనఁ దనుఁ బొందకయుండ మెలంగునట్లు నే-
@@ -2623,32 +2425,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('బు', '|'), ('రు', '|'), ('ద', '|'), ('ను', '|'), ('హా', 'U'), ('ళి', '|'), ('తో', 'U'), ('ను', '|'), ('రె', '|'), ('డి', '|'), ('పు', 'U'), ('ర్వు', '|'), ('మె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', '|'), ('నుం', 'U'), ('డి', '|'), ('యె', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('న్బు', '|'), ('రు', '|'), ('ద', '|'), ('యొ', '|'), ('కిం', 'U'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('ద', '|'), ('ను', '|'), ('బొం', 'U'), ('ద', '|'), ('క', '|'), ('యుం', 'U'), ('డ', '|'), ('మె', '|'), ('లం', 'U'), ('గు', '|'), ('న', 'U'), ('ట్లు', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('గృ', '|'), ('హ', '|'), ('మే', 'U'), ('ధి', '|'), ('య', 'U'), ('య్యు', '|'), ('భ', '|'), ('వ', '|'), ('బం', 'U'), ('ధ', '|'), ('ము', '|'), ('నం', 'U'), ('ట', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('జెం', 'U'), ('దు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>ఒరుల భజింపఁబోడుగద యొక్కపుడు న్నినుఁగొల్చు మేటి భా-
 స్వరసరసామ్రభూరుహలసత్కిసలానుభవానుమోదియౌ
@@ -2656,32 +2455,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('రు', '|'), ('ల', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('బో', 'U'), ('డు', '|'), ('గ', '|'), ('ద', '|'), ('యొ', 'U'), ('క్క', '|'), ('పు', '|'), ('డు', 'U'), ('న్ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('మే', 'U'), ('టి', '|'), ('భా', 'U'), ('స్వ', '|'), ('ర', '|'), ('స', '|'), ('ర', '|'), ('సా', 'U'), ('మ్ర', '|'), ('భూ', 'U'), ('రు', '|'), ('హ', '|'), ('ల', '|'), ('స', 'U'), ('త్కి', '|'), ('స', '|'), ('లా', 'U'), ('ను', '|'), ('భ', '|'), ('వా', 'U'), ('ను', '|'), ('మో', 'U'), ('ది', '|'), ('యౌ', 'U'), ('ప', '|'), ('ర', '|'), ('భృ', '|'), ('త', '|'), ('రా', 'U'), ('జ', '|'), ('మెం', 'U'), ('దు', '|'), ('నొ', '|'), ('క', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('వే', 'U'), ('ము', '|'), ('ల', '|'), ('జే', 'U'), ('ర', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>సరవిని జీవనార్థముగ చర్మసితాభసితాక్షమాల లే
 నరుడు ధరించు కైతవమునన్ భువినాతఁ డశేషధారుణీ-
@@ -2689,32 +2485,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('వి', '|'), ('ని', '|'), ('జీ', 'U'), ('వ', '|'), ('నా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('గ', '|'), ('చ', '|'), ('ర్మ', '|'), ('సి', '|'), ('తా', 'U'), ('భ', '|'), ('సి', '|'), ('తా', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ల', '|'), ('లే', 'U'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('ధ', '|'), ('రిం', 'U'), ('చు', '|'), ('కై', 'U'), ('త', '|'), ('వ', '|'), ('ము', '|'), ('నన్', 'U'), ('భు', '|'), ('వి', '|'), ('నా', 'U'), ('త', '|'), ('డ', '|'), ('శే', 'U'), ('ష', '|'), ('ధా', 'U'), ('రు', '|'), ('ణీ', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('ధు', '|'), ('రీ', 'U'), ('ణ', 'U'), ('ప్ర', '|'), ('చు', '|'), ('ర', '|'), ('భా', 'U'), ('గ్య', '|'), ('స', '|'), ('మ', 'U'), ('న్వి', '|'), ('తు', '|'), ('డై', 'U'), ('చె', '|'), ('లం', 'U'), ('గు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>సురచిరభక్తితోడ మనుజుం డొక బిల్వదళం బొకప్డు నీ
 శిరమున నుంచెనేని యది సింధురసైంధవచామరధ్వజాం-
@@ -2722,32 +2515,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ర', '|'), ('చి', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('డ', '|'), ('మ', '|'), ('ను', '|'), ('జుం', 'U'), ('డొ', '|'), ('క', '|'), ('బి', 'U'), ('ల్వ', '|'), ('ద', '|'), ('ళం', 'U'), ('బొ', '|'), ('క', 'U'), ('ప్డు', '|'), ('నీ', 'U'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నుం', 'U'), ('చె', '|'), ('నే', 'U'), ('ని', '|'), ('య', '|'), ('ది', '|'), ('సిం', 'U'), ('ధు', '|'), ('ర', '|'), ('సైం', 'U'), ('ధ', '|'), ('వ', '|'), ('చా', 'U'), ('మ', '|'), ('ర', 'U'), ('ధ్వ', '|'), ('జాం', 'U'), ('బ', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణా', 'U'), ('ది', '|'), ('వి', '|'), ('భ', '|'), ('వ', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', 'U'), ('న్గ', '|'), ('ను', '|'), ('ప', 'U'), ('ట్టి', '|'), ('యుం', 'U'), ('డు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>నరుఁ డొకనాఁడు నీ నగరు నంగనఁ బట్టి విచిత్రఘంటికో-
 త్కరరవమాలకించిన నతండు వినం డెపుడున్ కృతాంతకా-
@@ -2755,32 +2545,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('రు', '|'), ('డొ', '|'), ('క', '|'), ('నా', 'U'), ('డు', '|'), ('నీ', 'U'), ('న', '|'), ('గ', '|'), ('రు', '|'), ('నం', 'U'), ('గ', '|'), ('న', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వి', '|'), ('చి', 'U'), ('త్ర', '|'), ('ఘం', 'U'), ('టి', '|'), ('కో', 'U'), ('త్క', '|'), ('ర', '|'), ('ర', '|'), ('వ', '|'), ('మా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('తం', 'U'), ('డు', '|'), ('వి', '|'), ('నం', 'U'), ('డె', '|'), ('పు', '|'), ('డున్', 'U'), ('కృ', '|'), ('తాం', 'U'), ('త', '|'), ('కా', 'U'), ('స', '|'), ('ర', '|'), ('గ', '|'), ('ళ', '|'), ('ఘం', 'U'), ('టి', '|'), ('కా', 'U'), ('వ్ర', '|'), ('జ', '|'), ('వి', '|'), ('శం', 'U'), ('క', '|'), ('ట', '|'), ('సాం', 'U'), ('ద్ర', '|'), ('ఘ', '|'), ('ణం', 'U'), ('ఘ', '|'), ('ణ', 'U'), ('ధ్వ', '|'), ('నుల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>దురదుర జాగి మర్త్యుఁ డొకతూరె సమంచిత తావకీన మం-
 దిరమునకుం బ్రదక్షిణ మతిప్రమదంబునఁ జేసెనేని య-
@@ -2788,32 +2575,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('దు', '|'), ('ర', '|'), ('దు', '|'), ('ర', '|'), ('జా', 'U'), ('గి', '|'), ('మ', 'U'), ('ర్త్యు', '|'), ('డొ', '|'), ('క', '|'), ('తూ', 'U'), ('రె', '|'), ('స', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('తా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('కుం', 'U'), ('బ్ర', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణ', '|'), ('మ', '|'), ('తి', 'U'), ('ప్ర', '|'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('జే', 'U'), ('సె', '|'), ('నే', 'U'), ('ని', '|'), ('య', 'U'), ('ప్పు', '|'), ('రు', '|'), ('షు', '|'), ('డు', '|'), ('శే', 'U'), ('ష', '|'), ('భూ', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('పో', 'U'), ('ష', '|'), ('ణ', '|'), ('ధూ', 'U'), ('ర్వ', '|'), ('హు', '|'), ('డై', 'U'), ('వి', '|'), ('రా', 'U'), ('జి', '|'), ('లున్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>తిరమున నీ నివేశమున దీప మొకానొకనాఁ డొకింత బం-
 ధురమతి నిడ్డ ధన్యుఁడు చతుర్ముఖముఖ్యనిలింపమాన్యుఁడై
@@ -2821,32 +2605,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('తి', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నీ', 'U'), ('ని', '|'), ('వే', 'U'), ('శ', '|'), ('ము', '|'), ('న', '|'), ('దీ', 'U'), ('ప', '|'), ('మొ', '|'), ('కా', 'U'), ('నొ', '|'), ('క', '|'), ('నా', 'U'), ('డొ', '|'), ('కిం', 'U'), ('త', '|'), ('బం', 'U'), ('ధు', '|'), ('ర', '|'), ('మ', '|'), ('తి', '|'), ('ని', 'U'), ('డ్డ', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డు', '|'), ('చ', '|'), ('తు', '|'), ('ర్ము', '|'), ('ఖ', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('ని', '|'), ('లిం', 'U'), ('ప', '|'), ('మా', 'U'), ('న్యు', '|'), ('డై', 'U'), ('ని', '|'), ('రు', '|'), ('ప', '|'), ('మ', '|'), ('తా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('ప', '|'), ('ద', '|'), ('ని', 'U'), ('త్య', '|'), ('సు', '|'), ('ఖో', 'U'), ('న్న', '|'), ('తు', '|'), ('ల', '|'), ('చె', '|'), ('లం', 'U'), ('గు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>కరతలతాళవృంతములుఁ గ్రమ్మఁగ నెవ్వఁడు తావకాలయా-
 జిరమున నాఁడు నాతఁడు వసించు విరాజితరాజతావనీ-
@@ -2854,32 +2635,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('త', '|'), ('ల', '|'), ('తా', 'U'), ('ళ', '|'), ('వృం', 'U'), ('త', '|'), ('ము', '|'), ('లు', 'U'), ('గ్ర', 'U'), ('మ్మ', '|'), ('గ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('తా', 'U'), ('వ', '|'), ('కా', 'U'), ('ల', '|'), ('యా', 'U'), ('జి', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('డు', '|'), ('నా', 'U'), ('త', '|'), ('డు', '|'), ('వ', '|'), ('సిం', 'U'), ('చు', '|'), ('వి', '|'), ('రా', 'U'), ('జి', '|'), ('త', '|'), ('రా', 'U'), ('జ', '|'), ('తా', 'U'), ('వ', '|'), ('నీ', 'U'), ('ధ', '|'), ('ర', '|'), ('శి', '|'), ('ఖ', '|'), ('రా', 'U'), ('గ్ర', '|'), ('ర', 'U'), ('త్న', '|'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చి', '|'), ('త', '|'), ('కాం', 'U'), ('చ', '|'), ('న', '|'), ('సౌ', 'U'), ('ధ', '|'), ('వీ', 'U'), ('ధు', '|'), ('లన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>పరిచితి మీఱ మీ శిరముపై పురిసెండు జలంబొకప్పుఁ డా-
 దరమునఁ జిల్కు బల్లిదుఁడు తథ్యముగా నఖిలాఘదూరుఁడై
@@ -2887,32 +2665,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రి', '|'), ('చి', '|'), ('తి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మీ', 'U'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('పై', 'U'), ('పు', '|'), ('రి', '|'), ('సెం', 'U'), ('డు', '|'), ('జ', '|'), ('లం', 'U'), ('బొ', '|'), ('క', 'U'), ('ప్పు', '|'), ('డా', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('జి', 'U'), ('ల్కు', '|'), ('బ', 'U'), ('ల్లి', '|'), ('దు', '|'), ('డు', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('ఖి', '|'), ('లా', 'U'), ('ఘ', '|'), ('దూ', 'U'), ('రు', '|'), ('డై', 'U'), ('ధ', '|'), ('ర', '|'), ('గ', '|'), ('ల', '|'), ('పు', 'U'), ('ణ్య', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('ల', '|'), ('ద', 'U'), ('ప్ప', '|'), ('క', 'U'), ('గ్రుం', 'U'), ('కు', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('జే', 'U'), ('కొ', '|'), ('నున్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>బెరసిన వేడ్క యుల్లమునఁ బిక్కటిల న్మనుజుండు నీకుఁ గొ-
 వ్విరిసరమొక్క టచ్చపువివేకముతోడ నొసంగిన న్బురం-
@@ -2920,32 +2695,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('బె', '|'), ('ర', '|'), ('సి', '|'), ('న', '|'), ('వే', 'U'), ('డ్క', '|'), ('యు', 'U'), ('ల్ల', '|'), ('ము', '|'), ('న', '|'), ('బి', 'U'), ('క్క', '|'), ('టి', '|'), ('ల', 'U'), ('న్మ', '|'), ('ను', '|'), ('జుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('గొ', 'U'), ('వ్వి', '|'), ('రి', '|'), ('స', '|'), ('ర', '|'), ('మొ', 'U'), ('క్క', '|'), ('ట', 'U'), ('చ్చ', '|'), ('పు', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నొ', '|'), ('సం', 'U'), ('గి', '|'), ('న', 'U'), ('న్బు', '|'), ('రం', 'U'), ('ద', '|'), ('ర', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('రు', '|'), ('హ', 'U'), ('ప్ర', '|'), ('స', '|'), ('వ', '|'), ('దా', 'U'), ('మ', '|'), ('వి', '|'), ('భూ', 'U'), ('షి', '|'), ('తు', '|'), ('డై', 'U'), ('చె', '|'), ('లం', 'U'), ('గు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>కరయుగమెత్తి నీకుఁ గుతుకంబున మొక్కునతండు శేషభూ-
 వరమకుటాగ్రరత్నసమవాయసమగ్రవిభాసముల్లస-
@@ -2953,32 +2725,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('యు', '|'), ('గ', '|'), ('మె', 'U'), ('త్తి', '|'), ('నీ', 'U'), ('కు', '|'), ('గు', '|'), ('తు', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('మొ', 'U'), ('క్కు', '|'), ('న', '|'), ('తం', 'U'), ('డు', '|'), ('శే', 'U'), ('ష', '|'), ('భూ', 'U'), ('వ', '|'), ('ర', '|'), ('మ', '|'), ('కు', '|'), ('టా', 'U'), ('గ్ర', '|'), ('ర', 'U'), ('త్న', '|'), ('స', '|'), ('మ', '|'), ('వా', 'U'), ('య', '|'), ('స', '|'), ('మ', 'U'), ('గ్ర', '|'), ('వి', '|'), ('భా', 'U'), ('స', '|'), ('ము', 'U'), ('ల్ల', '|'), ('స', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ణ', '|'), ('స', '|'), ('రో', 'U'), ('జు', '|'), ('డై', 'U'), ('వి', '|'), ('వి', '|'), ('ధ', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లం', 'U'), ('గొ', '|'), ('ద', '|'), ('లే', 'U'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>తొరలెడు భక్తిఁ గప్పురపు ధూపము నీకు జనుం డొసంగుచో
 గొరగొర వానిమేనఁ గల ఘోరతరాఘపిశాచసంఘముల్
@@ -2986,32 +2755,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('తొ', '|'), ('ర', '|'), ('లె', '|'), ('డు', '|'), ('భ', 'U'), ('క్తి', '|'), ('గ', 'U'), ('ప్పు', '|'), ('ర', '|'), ('పు', '|'), ('ధూ', 'U'), ('ప', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('జ', '|'), ('నుం', 'U'), ('డొ', '|'), ('సం', 'U'), ('గు', '|'), ('చో', 'U'), ('గొ', '|'), ('ర', '|'), ('గొ', '|'), ('ర', '|'), ('వా', 'U'), ('ని', '|'), ('మే', 'U'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('ఘో', 'U'), ('ర', '|'), ('త', '|'), ('రా', 'U'), ('ఘ', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('సం', 'U'), ('ఘ', '|'), ('ముల్', 'U'), ('బ', '|'), ('రు', '|'), ('వ', '|'), ('డి', '|'), ('కూ', 'U'), ('యి', '|'), ('వె', 'U'), ('ట్టు', '|'), ('చు', '|'), ('ను', '|'), ('బా', 'U'), ('రి', '|'), ('చ', '|'), ('నుం', 'U'), ('గ', '|'), ('ద', '|'), ('త', 'U'), ('త్క్ష', '|'), ('ణం', 'U'), ('బు', '|'), ('నన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>పరునిఁ బరేశు భక్తజనపాలనశీలు ననంతు నాద్యు న-
 క్షరు నపవర్గదాయకు జగన్మయు నద్వయు నప్రమేయు నం-
@@ -3019,32 +2785,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('ని', '|'), ('బ', '|'), ('రే', 'U'), ('శు', '|'), ('భ', 'U'), ('క్త', '|'), ('జ', '|'), ('న', '|'), ('పా', 'U'), ('ల', '|'), ('న', '|'), ('శీ', 'U'), ('లు', '|'), ('న', '|'), ('నం', 'U'), ('తు', '|'), ('నా', 'U'), ('ద్యు', '|'), ('న', 'U'), ('క్ష', '|'), ('రు', '|'), ('న', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గ', '|'), ('దా', 'U'), ('య', '|'), ('కు', '|'), ('జ', '|'), ('గ', 'U'), ('న్మ', '|'), ('యు', '|'), ('న', 'U'), ('ద్వ', '|'), ('యు', '|'), ('న', 'U'), ('ప్ర', '|'), ('మే', 'U'), ('యు', '|'), ('నం', 'U'), ('బు', '|'), ('రు', '|'), ('హ', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('ప', '|'), ('రి', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('పి', '|'), ('చం', 'U'), ('డు', '|'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్మ', '|'), ('దిన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>హరునకు వందనంబు ఫణిహారునకు న్శరణ్యార్థి దేవతా-
 వరదునకుం జొహారు పురవైరికి మ్రొక్కు నగేంద్రజామనో-
@@ -3052,32 +2815,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('వం', 'U'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('ఫ', '|'), ('ణి', '|'), ('హా', 'U'), ('రు', '|'), ('న', '|'), ('కు', 'U'), ('న్శ', '|'), ('ర', 'U'), ('ణ్యా', 'U'), ('ర్థి', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('వ', '|'), ('ర', '|'), ('దు', '|'), ('న', '|'), ('కుం', 'U'), ('జొ', '|'), ('హా', 'U'), ('రు', '|'), ('పు', '|'), ('ర', '|'), ('వై', 'U'), ('రి', '|'), ('కి', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('న', '|'), ('గేం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('జో', 'U'), ('త', '|'), ('యం', 'U'), ('చు', '|'), ('న', '|'), ('న', '|'), ('యం', 'U'), ('బు', '|'), ('ను', '|'), ('నీ', 'U'), ('కు', '|'), ('న', '|'), ('మ', 'U'), ('స్క', '|'), ('రిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>దిరమున స్నానసంధ్యలును దేవ సపర్యలు సువ్రతంబులు-
 న్గురుభజనాదికంబులు నకుంఠితభక్తి నొనర్పనేర నీ
@@ -3085,32 +2845,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('ది', '|'), ('ర', '|'), ('ము', '|'), ('న', 'U'), ('స్నా', 'U'), ('న', '|'), ('సం', 'U'), ('ధ్య', '|'), ('లు', '|'), ('ను', '|'), ('దే', 'U'), ('వ', '|'), ('స', '|'), ('ప', 'U'), ('ర్య', '|'), ('లు', '|'), ('సు', 'U'), ('వ్ర', '|'), ('తం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్గు', '|'), ('రు', '|'), ('భ', '|'), ('జ', '|'), ('నా', 'U'), ('ది', '|'), ('కం', 'U'), ('బు', '|'), ('లు', '|'), ('న', '|'), ('కుం', 'U'), ('ఠి', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('నొ', '|'), ('న', 'U'), ('ర్ప', '|'), ('నే', 'U'), ('ర', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('చి', '|'), ('తి', '|'), ('ని', '|'), ('జం', 'U'), ('బు', '|'), ('గ', '|'), ('న', 'U'), ('న్ని', '|'), ('క', '|'), ('నె', 'U'), ('ట్లు', 'U'), ('బ్రో', 'U'), ('చె', '|'), ('దో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>గురుఁడవు బాంధవుండవు సఖుండవు తల్లివి దండ్రి వన్న వీ-
 శ్వరుఁడవు దాత వాప్తుఁడవు సర్వము నీవె యటంచు నమ్మితి-
@@ -3118,32 +2875,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('రు', '|'), ('డ', '|'), ('వు', '|'), ('బాం', 'U'), ('ధ', '|'), ('వుం', 'U'), ('డ', '|'), ('వు', '|'), ('స', '|'), ('ఖుం', 'U'), ('డ', '|'), ('వు', '|'), ('త', 'U'), ('ల్లి', '|'), ('వి', '|'), ('దం', 'U'), ('డ్రి', '|'), ('వ', 'U'), ('న్న', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డ', '|'), ('వు', '|'), ('దా', 'U'), ('త', '|'), ('వా', 'U'), ('ప్తు', '|'), ('డ', '|'), ('వు', '|'), ('స', 'U'), ('ర్వ', '|'), ('ము', '|'), ('నీ', 'U'), ('వె', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('న', 'U'), ('మ్మి', '|'), ('తి', 'U'), ('న్వ', '|'), ('ర', '|'), ('దు', '|'), ('డ', '|'), ('వై', 'U'), ('కృ', '|'), ('పా', 'U'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('వా', 'U'), ('వి', '|'), ('రి', '|'), ('నా', 'U'), ('ప', '|'), ('యి', '|'), ('జి', 'U'), ('ల్కి', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>కెరలెడు ఘోరపాపతతికి న్మదిఁ గంపిలి యేయుపాయమున్
 దొరకక యొక్క పెన్వెరవు దోచిన నుబ్బుచు నిబ్బరంబుగా
@@ -3151,32 +2905,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('కె', '|'), ('ర', '|'), ('లె', '|'), ('డు', '|'), ('ఘో', 'U'), ('ర', '|'), ('పా', 'U'), ('ప', '|'), ('త', '|'), ('తి', '|'), ('కి', 'U'), ('న్మ', '|'), ('ది', '|'), ('గం', 'U'), ('పి', '|'), ('లి', '|'), ('యే', 'U'), ('యు', '|'), ('పా', 'U'), ('య', '|'), ('మున్', 'U'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('క', '|'), ('యొ', 'U'), ('క్క', '|'), ('పె', 'U'), ('న్వె', '|'), ('ర', '|'), ('వు', '|'), ('దో', 'U'), ('చి', '|'), ('న', '|'), ('ను', 'U'), ('బ్బు', '|'), ('చు', '|'), ('ని', 'U'), ('బ్బ', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('హ', '|'), ('ర', '|'), ('హ', '|'), ('ర', '|'), ('యం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('తి', '|'), ('న', '|'), ('హా', 'U'), ('దు', '|'), ('రి', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('వీ', 'U'), ('డి', '|'), ('పా', 'U'), ('రె', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>దొరకెను నాకు భాగ్యమున దుస్సహదండధరప్రచండకిం-
 కరపటుదర్పసంహరణకారణమై యయిదక్షరంబులు-
@@ -3184,32 +2935,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('దొ', '|'), ('ర', '|'), ('కె', '|'), ('ను', '|'), ('నా', 'U'), ('కు', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('న', '|'), ('దు', 'U'), ('స్స', '|'), ('హ', '|'), ('దం', 'U'), ('డ', '|'), ('ధ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('చం', 'U'), ('డ', '|'), ('కిం', 'U'), ('క', '|'), ('ర', '|'), ('ప', '|'), ('టు', '|'), ('ద', 'U'), ('ర్ప', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మై', 'U'), ('య', '|'), ('యి', '|'), ('ద', 'U'), ('క్ష', '|'), ('రం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్బ', '|'), ('ర', '|'), ('గి', '|'), ('న', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('ము', '|'), ('సు', '|'), ('ప', 'U'), ('ర్వు', '|'), ('ల', '|'), ('కై', 'U'), ('న', '|'), ('ద', '|'), ('లం', 'U'), ('క', '|'), ('నే', 'U'), ('ని', '|'), ('కన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>గిరిశ నమోస్తు యోగిజనగేయ నమోస్తు మహోగ్రదోషసం-
 హరణ నమోస్తు భోగికులహార నమోస్తు సమస్తదేవతా-
@@ -3217,32 +2965,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('గి', '|'), ('రి', '|'), ('శ', '|'), ('న', '|'), ('మో', 'U'), ('స్తు', '|'), ('యో', 'U'), ('గి', '|'), ('జ', '|'), ('న', '|'), ('గే', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('స్తు', '|'), ('మ', '|'), ('హో', 'U'), ('గ్ర', '|'), ('దో', 'U'), ('ష', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('న', '|'), ('మో', 'U'), ('స్తు', '|'), ('భో', 'U'), ('గి', '|'), ('కు', '|'), ('ల', '|'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('మో', 'U'), ('స్తు', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('న', '|'), ('మో', 'U'), ('స్తు', '|'), ('తే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('సా', 'U'), ('రె', '|'), ('కు', '|'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('మ', 'U'), ('స్క', '|'), ('రిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>వరద పరాకు భక్తజనవంద్య పరాకు సమస్తపాపసం-
 హరణ పరాకు భక్తనివహావహదక్ష పరాకు యోగిహృ-
@@ -3250,32 +2995,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ర', '|'), ('ద', '|'), ('ప', '|'), ('రా', 'U'), ('కు', '|'), ('భ', 'U'), ('క్త', '|'), ('జ', '|'), ('న', '|'), ('వం', 'U'), ('ద్య', '|'), ('ప', '|'), ('రా', 'U'), ('కు', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('పా', 'U'), ('ప', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('ప', '|'), ('రా', 'U'), ('కు', '|'), ('భ', 'U'), ('క్త', '|'), ('ని', '|'), ('వ', '|'), ('హా', 'U'), ('వ', '|'), ('హ', '|'), ('ద', 'U'), ('క్ష', '|'), ('ప', '|'), ('రా', 'U'), ('కు', '|'), ('యో', 'U'), ('గి', '|'), ('హృ', 'U'), ('శ్చ', '|'), ('ర', '|'), ('ణ', '|'), ('ప', '|'), ('రా', 'U'), ('కు', '|'), ('సే', 'U'), ('య', '|'), ('కి', '|'), ('క', '|'), ('స', 'U'), ('య్య', '|'), ('న', '|'), ('నా', 'U'), ('మ', '|'), ('న', '|'), ('వా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చ', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>పరవనితా పరాస్థ నరపాలకసేవలయందుఁ గోరికల్
 దొరలఁగనీక నీ చరణతోయజభక్తియు సూనృతోక్తి యె-
@@ -3283,32 +3025,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('వ', '|'), ('ని', '|'), ('తా', 'U'), ('ప', '|'), ('రా', 'U'), ('స్థ', '|'), ('న', '|'), ('ర', '|'), ('పా', 'U'), ('ల', '|'), ('క', '|'), ('సే', 'U'), ('వ', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('గో', 'U'), ('రి', '|'), ('కల్', 'U'), ('దొ', '|'), ('ర', '|'), ('ల', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('తో', 'U'), ('య', '|'), ('జ', '|'), ('భ', 'U'), ('క్తి', '|'), ('యు', '|'), ('సూ', 'U'), ('నృ', '|'), ('తో', 'U'), ('క్తి', '|'), ('యె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('గీ', 'U'), ('డు', '|'), ('సే', 'U'), ('య', '|'), ('మి', '|'), ('యు', '|'), ('వా', 'U'), ('లె', '|'), ('ము', '|'), ('నా', 'U'), ('కొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>మురిపెముతోడ నక్షుసరము ల్భసితంబు ధరించినాఁడ మ-
 ద్గురువరదత్తమై సకలదోషములన్ దొలఁగించు ద్వాదశా-
@@ -3316,32 +3055,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('రి', '|'), ('పె', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('న', 'U'), ('క్షు', '|'), ('స', '|'), ('ర', '|'), ('ము', 'U'), ('ల్భ', '|'), ('సి', '|'), ('తం', 'U'), ('బు', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('మ', 'U'), ('ద్గు', '|'), ('రు', '|'), ('వ', '|'), ('ర', '|'), ('ద', 'U'), ('త్త', '|'), ('మై', 'U'), ('స', '|'), ('క', '|'), ('ల', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('లన్', 'U'), ('దొ', '|'), ('ల', '|'), ('గిం', 'U'), ('చు', 'U'), ('ద్వా', 'U'), ('ద', '|'), ('శా', 'U'), ('క్ష', '|'), ('రి', '|'), ('జ', '|'), ('పి', '|'), ('యిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('క', '|'), ('లు', '|'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('కి', '|'), ('క', '|'), ('గ', 'U'), ('ల్గు', '|'), ('టె', 'U'), ('ట్ల', '|'), ('యా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>మురువుగ నక్షమాలయును మోదికఁ బూనితి భూతి దాల్చితిన్
 స్మరణగ నైదువర్ణముల మంత్రము వేమరు నుచ్చరించితిన్
@@ -3349,32 +3085,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('రు', '|'), ('వు', '|'), ('గ', '|'), ('న', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ల', '|'), ('యు', '|'), ('ను', '|'), ('మో', 'U'), ('ది', '|'), ('క', '|'), ('బూ', 'U'), ('ని', '|'), ('తి', '|'), ('భూ', 'U'), ('తి', '|'), ('దా', 'U'), ('ల్చి', '|'), ('తిన్', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('గ', '|'), ('నై', 'U'), ('దు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ల', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('వే', 'U'), ('మ', '|'), ('రు', '|'), ('ను', 'U'), ('చ్చ', '|'), ('రిం', 'U'), ('చి', '|'), ('తిన్', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('ముల్', 'U'), ('దొ', '|'), ('ర', '|'), ('గి', '|'), ('దూ', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('జ', '|'), ('న', '|'), ('కుం', 'U'), ('డు', '|'), ('టె', 'U'), ('ట్లి', '|'), ('కన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>గురువరభక్తి మీఱ మిముఁ గొల్చినవాఁడనటంచుఁ దద్దయుం
 గరువముతోడ నేను కృతకర్మము లెవ్వియుఁ జేయనైతి దు-
@@ -3382,32 +3115,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('రు', '|'), ('వ', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మి', '|'), ('ము', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('వా', 'U'), ('డ', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('ద', 'U'), ('ద్ద', '|'), ('యుం', 'U'), ('గ', '|'), ('రు', '|'), ('వ', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నే', 'U'), ('ను', '|'), ('కృ', '|'), ('త', '|'), ('క', '|'), ('ర్మ', '|'), ('ము', '|'), ('లె', 'U'), ('వ్వి', '|'), ('యు', '|'), ('జే', 'U'), ('య', '|'), ('నై', 'U'), ('తి', '|'), ('దు', 'U'), ('ర్భ', '|'), ('ర', '|'), ('దు', '|'), ('రి', '|'), ('తా', 'U'), ('త్ము', '|'), ('డం', 'U'), ('చు', '|'), ('ను', '|'), ('ది', '|'), ('ర', 'U'), ('స్కృ', '|'), ('తి', '|'), ('జే', 'U'), ('య', '|'), ('క', '|'), ('న', 'U'), ('న్ను', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>ఒరిమెఁ గవీంద్రుఁ డేమెఱుఁగునో యని దర్శనమియ్యనోడి బ-
 ల్దొరలును మూలనీగుదురు లోభమున న్నిను నే మఱేమియు-
@@ -3415,32 +3145,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('రి', '|'), ('మె', '|'), ('గ', '|'), ('వీం', 'U'), ('ద్రు', '|'), ('డే', 'U'), ('మె', '|'), ('ఱు', '|'), ('గు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('మి', 'U'), ('య్య', '|'), ('నో', 'U'), ('డి', '|'), ('బ', 'U'), ('ల్దొ', '|'), ('ర', '|'), ('లు', '|'), ('ను', '|'), ('మూ', 'U'), ('ల', '|'), ('నీ', 'U'), ('గు', '|'), ('దు', '|'), ('రు', '|'), ('లో', 'U'), ('భ', '|'), ('ము', '|'), ('న', 'U'), ('న్ని', '|'), ('ను', '|'), ('నే', 'U'), ('మ', '|'), ('ఱే', 'U'), ('మి', '|'), ('యు', 'U'), ('న్వ', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('వే', 'U'), ('డ', '|'), ('నా', 'U'), ('కి', '|'), ('పు', '|'), ('డు', '|'), ('వై', 'U'), ('ళ', '|'), ('ము', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('మి', 'U'), ('య్య', '|'), ('రా', 'U'), ('గ', '|'), ('దే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>నర పశు పక్ష్మి వేఁట మృగ నాగ ఝషాదిక జంతుయోనుల-
 న్బొరిఁబొరి నెన్నిమార్లు మును పుట్టితినో యెఱుఁగ న్మహాఘనుల్
@@ -3448,32 +3175,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('ప', '|'), ('శు', '|'), ('ప', 'U'), ('క్ష్మి', '|'), ('వే', 'U'), ('ట', '|'), ('మృ', '|'), ('గ', '|'), ('నా', 'U'), ('గ', '|'), ('ఝ', '|'), ('షా', 'U'), ('ది', '|'), ('క', '|'), ('జం', 'U'), ('తు', '|'), ('యో', 'U'), ('ను', '|'), ('ల', 'U'), ('న్బొ', '|'), ('రి', '|'), ('బొ', '|'), ('రి', '|'), ('నె', 'U'), ('న్ని', '|'), ('మా', 'U'), ('ర్లు', '|'), ('ము', '|'), ('ను', '|'), ('పు', 'U'), ('ట్టి', '|'), ('తి', '|'), ('నో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', 'U'), ('న్మ', '|'), ('హా', 'U'), ('ఘ', '|'), ('నుల్', 'U'), ('హ', '|'), ('రు', '|'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('భా', 'U'), ('గ్య', '|'), ('మి', '|'), ('పు', '|'), ('డ', 'U'), ('బ్బె', '|'), ('ని', '|'), ('కే', 'U'), ('క్రి', '|'), ('య', 'U'), ('బ్రో', 'U'), ('చె', '|'), ('దో', 'U'), ('సు', '|'), ('మీ', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>ఒరుల నుతింపఁజాలఁ గలుషౌఘమహాదహనాగ్నికీలయై
 బరగుచుఁ గామితార్థము లపారముగా నిడు నీదు నామసం-
@@ -3481,32 +3205,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('రు', '|'), ('ల', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('జా', 'U'), ('ల', '|'), ('గ', '|'), ('లు', '|'), ('షౌ', 'U'), ('ఘ', '|'), ('మ', '|'), ('హా', 'U'), ('ద', '|'), ('హ', '|'), ('నా', 'U'), ('గ్ని', '|'), ('కీ', 'U'), ('ల', '|'), ('యై', 'U'), ('బ', '|'), ('ర', '|'), ('గు', '|'), ('చు', '|'), ('గా', 'U'), ('మి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('ల', '|'), ('పా', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('ని', '|'), ('డు', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('సం', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('య', '|'), ('హ', 'U'), ('ర్ని', '|'), ('శం', 'U'), ('బు', '|'), ('ను', 'U'), ('బ్ర', '|'), ('శ', 'U'), ('స్తి', '|'), ('గ', '|'), ('నా', 'U'), ('కొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>కరిముఖ నందిభృంగిరిటికాశిసముద్భవ కాలభైరవా-
 ద్యురు బలవన్మహాప్రమథయోధవరేణ్యులు గొల్వ ధారుణీ-
@@ -3514,32 +3235,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('రి', '|'), ('ము', '|'), ('ఖ', '|'), ('నం', 'U'), ('ది', '|'), ('భృం', 'U'), ('గి', '|'), ('రి', '|'), ('టి', '|'), ('కా', 'U'), ('శి', '|'), ('స', '|'), ('ము', 'U'), ('ద్భ', '|'), ('వ', '|'), ('కా', 'U'), ('ల', '|'), ('భై', 'U'), ('ర', '|'), ('వా', 'U'), ('ద్యు', '|'), ('రు', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('న్మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('మ', '|'), ('థ', '|'), ('యో', 'U'), ('ధ', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్యు', '|'), ('లు', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('ధా', 'U'), ('రు', '|'), ('ణీ', 'U'), ('ధ', '|'), ('ర', '|'), ('సు', '|'), ('త', '|'), ('గూ', 'U'), ('డి', '|'), ('నా', 'U'), ('కి', '|'), ('పు', '|'), ('డు', '|'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('మో', 'U'), ('హ', '|'), ('న', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('జూ', 'U'), ('ప', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>సరభసలీల నొక్కనిమిషంబును నిన్భజియింపలేక బల్
 దెరవుల దుర్విచారములఁ ద్రిమ్మరుచున్నది యెన్ని చెప్పిన-
@@ -3547,32 +3265,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('భ', '|'), ('స', '|'), ('లీ', 'U'), ('ల', '|'), ('నొ', 'U'), ('క్క', '|'), ('ని', '|'), ('మి', '|'), ('షం', 'U'), ('బు', '|'), ('ను', '|'), ('ని', 'U'), ('న్భ', '|'), ('జి', '|'), ('యిం', 'U'), ('ప', '|'), ('లే', 'U'), ('క', '|'), ('బల్', 'U'), ('దె', '|'), ('ర', '|'), ('వు', '|'), ('ల', '|'), ('దు', 'U'), ('ర్వి', '|'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('ద్రి', 'U'), ('మ్మ', '|'), ('రు', '|'), ('చు', 'U'), ('న్న', '|'), ('ది', '|'), ('యె', 'U'), ('న్ని', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', 'U'), ('న్మ', '|'), ('ర', '|'), ('ల', '|'), ('దు', '|'), ('పా', 'U'), ('ప', '|'), ('జా', 'U'), ('తి', '|'), ('మ', '|'), ('తి', '|'), ('నా', 'U'), ('కి', '|'), ('పు', '|'), ('డం', 'U'), ('కె', '|'), ('ము', '|'), ('గా', 'U'), ('ది', '|'), ('కె', 'U'), ('ట్ల', '|'), ('యా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>అరయఁగ నే నహర్నిశము నాఁడెడు వాక్యములెల్లఁ దావక
 స్ఫురణగఁ జిత్తగించి కలుషప్రకరంబులఁ బారఁదోలి నీ
@@ -3580,32 +3295,29 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('నే', 'U'), ('న', '|'), ('హ', 'U'), ('ర్ని', '|'), ('శ', '|'), ('ము', '|'), ('నా', 'U'), ('డె', '|'), ('డు', '|'), ('వా', 'U'), ('క్య', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('దా', 'U'), ('వ', '|'), ('క', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('గ', '|'), ('జి', 'U'), ('త్త', '|'), ('గిం', 'U'), ('చి', '|'), ('క', '|'), ('లు', '|'), ('ష', 'U'), ('ప్ర', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('బా', 'U'), ('ర', '|'), ('దో', 'U'), ('లి', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('భ', 'U'), ('క్తి', '|'), ('కొ', '|'), ('న', '|'), ('సా', 'U'), ('గ', '|'), ('గ', '|'), ('జే', 'U'), ('పీ', 'U'), ('స', '|'), ('ము', 'U'), ('ద్ధ', '|'), ('రిం', 'U'), ('ప', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>ఇరవగు భక్తితోడ జనుఁ డీశతకంబుఁ బఠించిన న్సమా-
 దరమున వ్రాసిన న్వినినఁ దప్పవుగా వివిధేష్టభోగముల్
@@ -3613,17 +3325,17 @@
 చిరవిభవా! భవా! విజితచిత్తభవా! యభవా! మహాభవా!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>chiravibhava</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
-        <is>
-          <t>chiravibhava</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
         <is>
           <t>[('ఇ', '|'), ('ర', '|'), ('వ', '|'), ('గు', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('డ', '|'), ('జ', '|'), ('ను', '|'), ('డీ', 'U'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('బ', '|'), ('ఠిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్స', '|'), ('మా', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('న', 'U'), ('వ్రా', 'U'), ('సి', '|'), ('న', 'U'), ('న్వి', '|'), ('ని', '|'), ('న', '|'), ('ద', 'U'), ('ప్ప', '|'), ('వు', '|'), ('గా', 'U'), ('వి', '|'), ('వి', '|'), ('ధే', 'U'), ('ష్ట', '|'), ('భో', 'U'), ('గ', '|'), ('ముల్', 'U'), ('ధ', '|'), ('ర', '|'), ('భు', '|'), ('జి', '|'), ('యిం', 'U'), ('చి', '|'), ('యా', 'U'), ('తు', '|'), ('ది', '|'), ('ని', '|'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('ది', 'U'), ('వ్య', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('జే', 'U'), ('రు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>

--- a/dataset/lg/chiravibhava.xlsx
+++ b/dataset/lg/chiravibhava.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('సి', '|'), ('రి', '|'), ('మ', '|'), ('గ', '|'), ('డున్', 'U'), ('బి', '|'), ('తా', 'U'), ('మ', '|'), ('హు', '|'), ('డు', '|'), ('జే', 'U'), ('రి', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('గ', '|'), ('వెం', 'U'), ('డి', '|'), ('కొం', 'U'), ('డ', '|'), ('పై', 'U'), ('స', '|'), ('ర', '|'), ('స', '|'), ('న', '|'), ('వేం', 'U'), ('దు', '|'), ('కాం', 'U'), ('త', '|'), ('మ', '|'), ('ణి', '|'), ('సౌ', 'U'), ('ధ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('బ', '|'), ('సిం', 'U'), ('డి', '|'), ('గ', 'U'), ('ద్దె', '|'), ('పై', 'U'), ('గి', '|'), ('రి', '|'), ('సు', '|'), ('త', '|'), ('గూ', 'U'), ('డి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('గే', 'U'), ('రె', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('మ', '|'), ('దిన్', 'U'), ('ద', '|'), ('లం', 'U'), ('చె', '|'), ('దన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('సి', '|'), ('రి', '|'), ('మ', '|'), ('గ', '|'), ('డు', 'U'), ('న్బి', '|'), ('తా', 'U'), ('మ', '|'), ('హు', '|'), ('డు', '|'), ('జే', 'U'), ('రి', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('గ', '|'), ('వెం', 'U'), ('డి', '|'), ('కొం', 'U'), ('డ', '|'), ('పై', 'U'), ('స', '|'), ('ర', '|'), ('స', '|'), ('న', '|'), ('వేం', 'U'), ('దు', '|'), ('కాం', 'U'), ('త', '|'), ('మ', '|'), ('ణి', '|'), ('సౌ', 'U'), ('ధ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('బ', '|'), ('సిం', 'U'), ('డి', '|'), ('గ', 'U'), ('ద్దె', '|'), ('పై', 'U'), ('గి', '|'), ('రి', '|'), ('సు', '|'), ('త', '|'), ('గూ', 'U'), ('డి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('గే', 'U'), ('రె', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('మ', '|'), ('ది', 'U'), ('న్ద', '|'), ('లం', 'U'), ('చె', '|'), ('దన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('రు', '|'), ('లు', '|'), ('హ', '|'), ('రుల్', 'U'), ('చ', '|'), ('మూ', 'U'), ('వ', '|'), ('రు', '|'), ('లు', '|'), ('గా', 'U'), ('ట', '|'), ('పు', '|'), ('మే', 'U'), ('ల్న', '|'), ('గ', '|'), ('రుల్', 'U'), ('క', '|'), ('డా', 'U'), ('ని', '|'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('లు', '|'), ('స', '|'), ('రుల్', 'U'), ('త', '|'), ('లో', 'U'), ('ద', '|'), ('రు', '|'), ('లు', '|'), ('గం', 'U'), ('ధ', '|'), ('మి', '|'), ('ళ', 'U'), ('న్మృ', '|'), ('గ', '|'), ('నా', 'U'), ('భి', '|'), ('చం', 'U'), ('ద', '|'), ('నా', 'U'), ('గ', '|'), ('రు', '|'), ('లు', '|'), ('వి', '|'), ('రుల్', 'U'), ('జ', '|'), ('గా', 'U'), ('సి', '|'), ('రు', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('సు', '|'), ('ఖిం', 'U'), ('త్రు', 'U'), ('త్వ', '|'), ('దీ', 'U'), ('యు', '|'), ('లౌ', 'U'), ('న', '|'), ('రుల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('క', '|'), ('రు', '|'), ('లు', '|'), ('హ', '|'), ('రు', 'U'), ('ల్చ', '|'), ('మూ', 'U'), ('వ', '|'), ('రు', '|'), ('లు', '|'), ('గా', 'U'), ('ట', '|'), ('పు', '|'), ('మే', 'U'), ('ల్న', '|'), ('గ', '|'), ('రు', 'U'), ('ల్క', '|'), ('డా', 'U'), ('ని', '|'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('లు', '|'), ('స', '|'), ('రు', 'U'), ('ల్త', '|'), ('లో', 'U'), ('ద', '|'), ('రు', '|'), ('లు', '|'), ('గం', 'U'), ('ధ', '|'), ('మి', '|'), ('ళ', 'U'), ('న్మృ', '|'), ('గ', '|'), ('నా', 'U'), ('భి', '|'), ('చం', 'U'), ('ద', '|'), ('నా', 'U'), ('గ', '|'), ('రు', '|'), ('లు', '|'), ('వి', '|'), ('రు', 'U'), ('ల్జ', '|'), ('గా', 'U'), ('సి', '|'), ('రు', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('సు', '|'), ('ఖిం', 'U'), ('త్రు', 'U'), ('త్వ', '|'), ('దీ', 'U'), ('యు', '|'), ('లౌ', 'U'), ('న', '|'), ('రుల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('ర', '|'), ('ల', '|'), ('ని', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('డ', '|'), ('ము', '|'), ('ను', '|'), ('మ', 'U'), ('ల్హ', '|'), ('ణ', '|'), ('బి', 'U'), ('ల్హ', '|'), ('ణ', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('స', 'U'), ('త్క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('లు', '|'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('ని', '|'), ('సా', 'U'), ('రె', '|'), ('కు', '|'), ('నిన్', 'U'), ('బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('చి', '|'), ('ధ', 'U'), ('న్యు', '|'), ('లై', 'U'), ('బ', '|'), ('ర', '|'), ('గి', '|'), ('ర', '|'), ('టం', 'U'), ('చు', '|'), ('నే', 'U'), ('ను', '|'), ('ని', '|'), ('ను', '|'), ('బ', 'U'), ('ద్య', '|'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('గ', '|'), ('సం', 'U'), ('స్మ', '|'), ('రిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('మ', '|'), ('ర', '|'), ('ల', '|'), ('ని', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('డ', '|'), ('ము', '|'), ('ను', '|'), ('మ', 'U'), ('ల్హ', '|'), ('ణ', '|'), ('బి', 'U'), ('ల్హ', '|'), ('ణ', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('స', 'U'), ('త్క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('లు', '|'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('ని', '|'), ('సా', 'U'), ('రె', '|'), ('కు', '|'), ('ని', 'U'), ('న్బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('చి', '|'), ('ధ', 'U'), ('న్యు', '|'), ('లై', 'U'), ('బ', '|'), ('ర', '|'), ('గి', '|'), ('ర', '|'), ('టం', 'U'), ('చు', '|'), ('నే', 'U'), ('ను', '|'), ('ని', '|'), ('ను', '|'), ('బ', 'U'), ('ద్య', '|'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('గ', '|'), ('సం', 'U'), ('స్మ', '|'), ('రిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('హ', '|'), ('రి', '|'), ('ము', '|'), ('ఖ', '|'), ('స', 'U'), ('ర్వ', '|'), ('ది', 'U'), ('క్ప', '|'), ('రి', '|'), ('వృ', '|'), ('తా', 'U'), ('ర్చి', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('స', '|'), ('రో', 'U'), ('జు', '|'), ('డై', 'U'), ('న', '|'), ('య', 'U'), ('క్క', '|'), ('రి', '|'), ('ము', '|'), ('ఖు', '|'), ('డె', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('వి', '|'), ('త', '|'), ('త', '|'), ('కౌ', 'U'), ('తు', '|'), ('క', '|'), ('లీ', 'U'), ('ల', '|'), ('బొ', '|'), ('సం', 'U'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('బో', 'U'), ('ని', '|'), ('ర', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('ద్వ', '|'), ('దీ', 'U'), ('య', '|'), ('ప', '|'), ('ద', '|'), ('నీ', 'U'), ('ర', '|'), ('జ', '|'), ('భ', 'U'), ('క్తు', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('స', 'U'), ('త్కృ', '|'), ('తుల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('హ', '|'), ('రి', '|'), ('ము', '|'), ('ఖ', '|'), ('స', 'U'), ('ర్వ', '|'), ('ది', 'U'), ('క్ప', '|'), ('రి', '|'), ('వృ', '|'), ('తా', 'U'), ('ర్చి', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('స', '|'), ('రో', 'U'), ('జు', '|'), ('డై', 'U'), ('న', '|'), ('య', 'U'), ('క్క', '|'), ('రి', '|'), ('ము', '|'), ('ఖు', '|'), ('డె', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('న్వి', '|'), ('త', '|'), ('త', '|'), ('కౌ', 'U'), ('తు', '|'), ('క', '|'), ('లీ', 'U'), ('ల', '|'), ('బొ', '|'), ('సం', 'U'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('బో', 'U'), ('ని', '|'), ('ర', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('ద్వ', '|'), ('దీ', 'U'), ('య', '|'), ('ప', '|'), ('ద', '|'), ('నీ', 'U'), ('ర', '|'), ('జ', '|'), ('భ', 'U'), ('క్తు', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('స', 'U'), ('త్కృ', '|'), ('తుల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('ర', '|'), ('వ', '|'), ('తి', '|'), ('కొ', 'U'), ('క్క', '|'), ('కా', 'U'), ('వ్య', '|'), ('మి', '|'), ('డి', '|'), ('నన్', 'U'), ('ధ', '|'), ('న', '|'), ('ధా', 'U'), ('న్య', '|'), ('మ', '|'), ('ణీ', 'U'), ('చో', 'U'), ('ళ', '|'), ('ముల్', 'U'), ('పు', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('వా', 'U'), ('హ', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('వి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('గో', 'U'), ('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('ది', '|'), ('కం', 'U'), ('బు', '|'), ('లుం', 'U'), ('గు', '|'), ('రు', '|'), ('కృ', '|'), ('ప', '|'), ('ని', 'U'), ('చ్చి', '|'), ('బ్రో', 'U'), ('చు', '|'), ('ని', '|'), ('ది', '|'), ('గో', 'U'), ('మ', '|'), ('రి', '|'), ('నీ', 'U'), ('వి', '|'), ('క', '|'), ('నే', 'U'), ('మి', '|'), ('యి', 'U'), ('చ్చె', '|'), ('దో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('న', '|'), ('ర', '|'), ('వ', '|'), ('తి', '|'), ('కొ', 'U'), ('క్క', '|'), ('కా', 'U'), ('వ్య', '|'), ('మి', '|'), ('డి', '|'), ('న', 'U'), ('న్ధ', '|'), ('న', '|'), ('ధా', 'U'), ('న్య', '|'), ('మ', '|'), ('ణీ', 'U'), ('చో', 'U'), ('ళ', '|'), ('ముల్', 'U'), ('పు', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('వా', 'U'), ('హ', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('వి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('గో', 'U'), ('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('ది', '|'), ('కం', 'U'), ('బు', '|'), ('లుం', 'U'), ('గు', '|'), ('రు', '|'), ('కృ', '|'), ('ప', '|'), ('ని', 'U'), ('చ్చి', '|'), ('బ్రో', 'U'), ('చు', '|'), ('ని', '|'), ('ది', '|'), ('గో', 'U'), ('మ', '|'), ('రి', '|'), ('నీ', 'U'), ('వి', '|'), ('క', '|'), ('నే', 'U'), ('మి', '|'), ('యి', 'U'), ('చ్చె', '|'), ('దో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('హ', '|'), ('ర', '|'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('శ', '|'), ('శం', 'U'), ('క', '|'), ('ర', '|'), ('పు', '|'), ('రాం', 'U'), ('త', '|'), ('క', '|'), ('భ', 'U'), ('ర్గ', '|'), ('గి', '|'), ('రీ', 'U'), ('శ', '|'), ('చం', 'U'), ('ద్ర', '|'), ('శే', 'U'), ('ఖ', '|'), ('ర', '|'), ('మృ', '|'), ('డ', '|'), ('కృ', 'U'), ('త్తి', '|'), ('వా', 'U'), ('స', '|'), ('శి', '|'), ('తి', '|'), ('కం', 'U'), ('ధ', '|'), ('ర', '|'), ('శ', 'U'), ('ర్వ', '|'), ('న', '|'), ('గేం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('శి', '|'), ('వ', '|'), ('మృ', 'U'), ('త్యు', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('ని', '|'), ('ను', 'U'), ('న్స్మ', '|'), ('రి', '|'), ('యిం', 'U'), ('తు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('న్చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('హ', '|'), ('ర', '|'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('శ', '|'), ('శం', 'U'), ('క', '|'), ('ర', '|'), ('పు', '|'), ('రాం', 'U'), ('త', '|'), ('క', '|'), ('భ', 'U'), ('ర్గ', '|'), ('గి', '|'), ('రీ', 'U'), ('శ', '|'), ('చం', 'U'), ('ద్ర', '|'), ('శే', 'U'), ('ఖ', '|'), ('ర', '|'), ('మృ', '|'), ('డ', '|'), ('కృ', 'U'), ('త్తి', '|'), ('వా', 'U'), ('స', '|'), ('శి', '|'), ('తి', '|'), ('కం', 'U'), ('ధ', '|'), ('ర', '|'), ('శ', 'U'), ('ర్వ', '|'), ('న', '|'), ('గేం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('శి', '|'), ('వ', '|'), ('మృ', 'U'), ('త్యు', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('ని', '|'), ('ను', 'U'), ('న్స్మ', '|'), ('రి', '|'), ('యిం', 'U'), ('తు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('రు', '|'), ('ణ', '|'), ('భ', '|'), ('వా', 'U'), ('త్రి', '|'), ('గౌ', 'U'), ('త', '|'), ('ము', '|'), ('లు', 'U'), ('వ్యా', 'U'), ('స', '|'), ('వ', '|'), ('సి', 'U'), ('ష్ఠ', '|'), ('ఘ', '|'), ('టో', 'U'), ('ద్భ', '|'), ('వుల్', 'U'), ('ప', '|'), ('రా', 'U'), ('శ', '|'), ('ర', '|'), ('సు', '|'), ('త', '|'), ('క', 'U'), ('ణ్వ', '|'), ('కౌ', 'U'), ('శి', '|'), ('కు', '|'), ('లు', '|'), ('జ', 'U'), ('హ్ను', '|'), ('శ', '|'), ('మీ', 'U'), ('క', '|'), ('ము', '|'), ('ఖా', 'U'), ('ఖి', '|'), ('ల', 'U'), ('ర్షి', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('లు', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('జూ', 'U'), ('ల', '|'), ('ర', '|'), ('ట', '|'), ('కా', 'U'), ('ని', '|'), ('ను', '|'), ('మా', 'U'), ('దృ', '|'), ('శు', '|'), ('లె', 'U'), ('న్న', '|'), ('నే', 'U'), ('ర్తు', '|'), ('రే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('వ', '|'), ('రు', '|'), ('ణ', '|'), ('భ', '|'), ('వా', 'U'), ('త్రి', '|'), ('గౌ', 'U'), ('త', '|'), ('ము', '|'), ('లు', 'U'), ('వ్యా', 'U'), ('స', '|'), ('వ', '|'), ('సి', 'U'), ('ష్ఠ', '|'), ('ఘ', '|'), ('టో', 'U'), ('ద్భ', '|'), ('వు', 'U'), ('ల్ప', '|'), ('రా', 'U'), ('శ', '|'), ('ర', '|'), ('సు', '|'), ('త', '|'), ('క', 'U'), ('ణ్వ', '|'), ('కౌ', 'U'), ('శి', '|'), ('కు', '|'), ('లు', '|'), ('జ', 'U'), ('హ్ను', '|'), ('శ', '|'), ('మీ', 'U'), ('క', '|'), ('ము', '|'), ('ఖా', 'U'), ('ఖి', '|'), ('ల', 'U'), ('ర్షి', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('లు', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('జూ', 'U'), ('ల', '|'), ('ర', '|'), ('ట', '|'), ('కా', 'U'), ('ని', '|'), ('ను', '|'), ('మా', 'U'), ('దృ', '|'), ('శు', '|'), ('లె', 'U'), ('న్న', '|'), ('నే', 'U'), ('ర్తు', '|'), ('రే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('ర', '|'), ('లు', '|'), ('ను', '|'), ('దై', 'U'), ('త్యు', '|'), ('లుం', 'U'), ('గ', '|'), ('ద', '|'), ('సి', '|'), ('స్రు', 'U'), ('క్క', '|'), ('క', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('మ', '|'), ('ధిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('ను', '|'), ('రు', '|'), ('గ', '|'), ('తి', '|'), ('నం', 'U'), ('దు', '|'), ('హా', 'U'), ('ల', '|'), ('హ', '|'), ('ల', '|'), ('ము', 'U'), ('ద్భ', '|'), ('వ', '|'), ('మై', 'U'), ('జ', '|'), ('గ', '|'), ('ముల్', 'U'), ('హ', '|'), ('రిం', 'U'), ('ప', '|'), ('న', 'U'), ('గ్గ', '|'), ('ర', '|'), ('ళ', '|'), ('ము', '|'), ('కం', 'U'), ('ఠ', '|'), ('సీ', 'U'), ('మ', '|'), ('ని', '|'), ('డి', '|'), ('కా', 'U'), ('వ', '|'), ('వె', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నా', 'U'), ('ద', '|'), ('టన్', 'U'), ('జి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('సు', '|'), ('ర', '|'), ('లు', '|'), ('ను', '|'), ('దై', 'U'), ('త్యు', '|'), ('లుం', 'U'), ('గ', '|'), ('ద', '|'), ('సి', '|'), ('స్రు', 'U'), ('క్క', '|'), ('క', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('మ', '|'), ('ధిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('ను', '|'), ('రు', '|'), ('గ', '|'), ('తి', '|'), ('నం', 'U'), ('దు', '|'), ('హా', 'U'), ('ల', '|'), ('హ', '|'), ('ల', '|'), ('ము', 'U'), ('ద్భ', '|'), ('వ', '|'), ('మై', 'U'), ('జ', '|'), ('గ', '|'), ('ము', 'U'), ('ల్హ', '|'), ('రిం', 'U'), ('ప', '|'), ('న', 'U'), ('గ్గ', '|'), ('ర', '|'), ('ళ', '|'), ('ము', '|'), ('కం', 'U'), ('ఠ', '|'), ('సీ', 'U'), ('మ', '|'), ('ని', '|'), ('డి', '|'), ('కా', 'U'), ('వ', '|'), ('వె', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నా', 'U'), ('ద', '|'), ('టన్', 'U'), ('జి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('కి', '|'), ('రి', '|'), ('క', '|'), ('ల', '|'), ('హం', 'U'), ('స', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('గృ', 'U'), ('ష్ణు', '|'), ('డు', '|'), ('నం', 'U'), ('బు', '|'), ('రు', '|'), ('హా', 'U'), ('స', '|'), ('నుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లున్', 'U'), ('శి', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('న', '|'), ('జా', 'U'), ('గి', '|'), ('ర', '|'), ('సా', 'U'), ('త', '|'), ('ల', '|'), ('ము', 'U'), ('న్న', '|'), ('భం', 'U'), ('బు', '|'), ('వే', 'U'), ('స', '|'), ('రి', '|'), ('వె', '|'), ('దు', '|'), ('కం', 'U'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('బ్ర', '|'), ('స', 'U'), ('న్న', '|'), ('త', '|'), ('నొం', 'U'), ('ద', '|'), ('వె', '|'), ('లిం', 'U'), ('గ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('కి', '|'), ('రి', '|'), ('క', '|'), ('ల', '|'), ('హం', 'U'), ('స', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('గృ', 'U'), ('ష్ణు', '|'), ('డు', '|'), ('నం', 'U'), ('బు', '|'), ('రు', '|'), ('హా', 'U'), ('స', '|'), ('నుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లు', 'U'), ('న్శి', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('న', '|'), ('జా', 'U'), ('గి', '|'), ('ర', '|'), ('సా', 'U'), ('త', '|'), ('ల', '|'), ('ము', 'U'), ('న్న', '|'), ('భం', 'U'), ('బు', '|'), ('వే', 'U'), ('స', '|'), ('రి', '|'), ('వె', '|'), ('దు', '|'), ('కం', 'U'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('బ్ర', '|'), ('స', 'U'), ('న్న', '|'), ('త', '|'), ('నొం', 'U'), ('ద', '|'), ('వె', '|'), ('లిం', 'U'), ('గ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ర', '|'), ('య', '|'), ('మృ', '|'), ('కం', 'U'), ('డు', '|'), ('సూ', 'U'), ('ను', '|'), ('డు', '|'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('ర', '|'), ('మృ', 'U'), ('త్యు', '|'), ('భ', '|'), ('యా', 'U'), ('కు', '|'), ('లా', 'U'), ('ర్తు', '|'), ('డై', 'U'), ('వె', '|'), ('ఱ', '|'), ('వు', '|'), ('ద', '|'), ('లి', 'U'), ('ర్ప', '|'), ('నిన్', 'U'), ('శ', '|'), ('ర', '|'), ('ణు', '|'), ('వే', 'U'), ('డి', '|'), ('న', '|'), ('మి', 'U'), ('త్తి', '|'), ('న', '|'), ('డం', 'U'), ('చి', '|'), ('య', 'U'), ('మ్ము', '|'), ('నీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('సు', '|'), ('తు', '|'), ('బ్రో', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('జీ', 'U'), ('వు', '|'), ('ని', '|'), ('జే', 'U'), ('సి', '|'), ('వా', 'U'), ('సి', '|'), ('గా', 'U'), ('జి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('అ', '|'), ('ర', '|'), ('య', '|'), ('మృ', '|'), ('కం', 'U'), ('డు', '|'), ('సూ', 'U'), ('ను', '|'), ('డు', '|'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('ర', '|'), ('మృ', 'U'), ('త్యు', '|'), ('భ', '|'), ('యా', 'U'), ('కు', '|'), ('లా', 'U'), ('ర్తు', '|'), ('డై', 'U'), ('వె', '|'), ('ఱ', '|'), ('వు', '|'), ('ద', '|'), ('లి', 'U'), ('ర్ప', '|'), ('ని', 'U'), ('న్శ', '|'), ('ర', '|'), ('ణు', '|'), ('వే', 'U'), ('డి', '|'), ('న', '|'), ('మి', 'U'), ('త్తి', '|'), ('న', '|'), ('డం', 'U'), ('చి', '|'), ('య', 'U'), ('మ్ము', '|'), ('నీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('సు', '|'), ('తు', '|'), ('బ్రో', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('జీ', 'U'), ('వు', '|'), ('ని', '|'), ('జే', 'U'), ('సి', '|'), ('వా', 'U'), ('సి', '|'), ('గా', 'U'), ('జి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('హ', '|'), ('రి', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('రూ', 'U'), ('ప', '|'), ('ధ', '|'), ('రు', '|'), ('డై', 'U'), ('స', '|'), ('మ', '|'), ('రా', 'U'), ('గ్ర', '|'), ('మ', '|'), ('హో', 'U'), ('గ్ర', '|'), ('భం', 'U'), ('గి', '|'), ('న', 'U'), ('బ్బు', '|'), ('ర', '|'), ('మొ', '|'), ('ద', '|'), ('వన్', 'U'), ('హి', '|'), ('ర', 'U'), ('ణ్య', '|'), ('క', '|'), ('శి', '|'), ('పు', 'U'), ('న్బ', '|'), ('రి', '|'), ('మా', 'U'), ('ర్చి', '|'), ('చె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('స', '|'), ('ర', '|'), ('గ', '|'), ('ద', '|'), ('దు', '|'), ('గ్ర', '|'), ('తం', 'U'), ('శ', '|'), ('ర', '|'), ('భ', '|'), ('సా', 'U'), ('ళు', '|'), ('వ', '|'), ('దే', 'U'), ('హు', '|'), ('డ', '|'), ('వై', 'U'), ('య', '|'), ('డం', 'U'), ('ప', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('హ', '|'), ('రి', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('రూ', 'U'), ('ప', '|'), ('ధ', '|'), ('రు', '|'), ('డై', 'U'), ('స', '|'), ('మ', '|'), ('రా', 'U'), ('గ్ర', '|'), ('మ', '|'), ('హో', 'U'), ('గ్ర', '|'), ('భం', 'U'), ('గి', '|'), ('న', 'U'), ('బ్బు', '|'), ('ర', '|'), ('మొ', '|'), ('ద', '|'), ('వ', 'U'), ('న్హి', '|'), ('ర', 'U'), ('ణ్య', '|'), ('క', '|'), ('శి', '|'), ('పు', 'U'), ('న్బ', '|'), ('రి', '|'), ('మా', 'U'), ('ర్చి', '|'), ('చె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('స', '|'), ('ర', '|'), ('గ', '|'), ('ద', '|'), ('దు', '|'), ('గ్ర', '|'), ('తం', 'U'), ('శ', '|'), ('ర', '|'), ('భ', '|'), ('సా', 'U'), ('ళు', '|'), ('వ', '|'), ('దే', 'U'), ('హు', '|'), ('డ', '|'), ('వై', 'U'), ('య', '|'), ('డం', 'U'), ('ప', '|'), ('వే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('ర', '|'), ('వు', '|'), ('గ', '|'), ('దా', 'U'), ('రు', '|'), ('కా', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్ర', '|'), ('వ', '|'), ('ధూ', 'U'), ('తి', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('వ', '|'), ('టు', '|'), ('కా', 'U'), ('కృ', '|'), ('తిం', 'U'), ('బొ', '|'), ('లి', '|'), ('చి', '|'), ('య', 'U'), ('బ్జ', '|'), ('శ', '|'), ('రా', 'U'), ('హ', '|'), ('వ', '|'), ('లీ', 'U'), ('ల', '|'), ('లం', 'U'), ('గ', '|'), ('డున్', 'U'), ('గ', '|'), ('ర', '|'), ('చి', '|'), ('న', '|'), ('నీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ర', '|'), ('తి', '|'), ('కౌ', 'U'), ('శ', '|'), ('ల', '|'), ('ముల్', 'U'), ('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('ప', '|'), ('శ', 'U'), ('క్య', '|'), ('మే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('ఇ', '|'), ('ర', '|'), ('వు', '|'), ('గ', '|'), ('దా', 'U'), ('రు', '|'), ('కా', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్ర', '|'), ('వ', '|'), ('ధూ', 'U'), ('తి', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('వ', '|'), ('టు', '|'), ('కా', 'U'), ('కృ', '|'), ('తిం', 'U'), ('బొ', '|'), ('లి', '|'), ('చి', '|'), ('య', 'U'), ('బ్జ', '|'), ('శ', '|'), ('రా', 'U'), ('హ', '|'), ('వ', '|'), ('లీ', 'U'), ('ల', '|'), ('లం', 'U'), ('గ', '|'), ('డున్', 'U'), ('గ', '|'), ('ర', '|'), ('చి', '|'), ('న', '|'), ('నీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ర', '|'), ('తి', '|'), ('కౌ', 'U'), ('శ', '|'), ('ల', '|'), ('ము', 'U'), ('ల్గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('ప', '|'), ('శ', 'U'), ('క్య', '|'), ('మే', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నిన్', 'U'), ('శి', '|'), ('ల', '|'), ('ల', '|'), ('వ్రే', 'U'), ('సి', '|'), ('యు', '|'), ('రో', 'U'), ('క', '|'), ('ట', '|'), ('గ్రు', 'U'), ('మ్మి', '|'), ('యున్', 'U'), ('గృ', '|'), ('హాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('గా', 'U'), ('పు', '|'), ('వె', 'U'), ('ట్టి', '|'), ('యు', '|'), ('ను', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('గా', 'U'), ('వె', '|'), ('లి', '|'), ('వె', 'U'), ('ట్టు', '|'), ('కుం', 'U'), ('టి', '|'), ('న', 'U'), ('ల్ది', '|'), ('ర', '|'), ('గ', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('ను', '|'), ('లే', 'U'), ('త', '|'), ('గు', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్యు', '|'), ('లై', 'U'), ('రి', '|'), ('మేల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('వి', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('ని', 'U'), ('న్శి', '|'), ('ల', '|'), ('ల', '|'), ('వ్రే', 'U'), ('సి', '|'), ('యు', '|'), ('రో', 'U'), ('క', '|'), ('ట', '|'), ('గ్రు', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('న్గృ', '|'), ('హాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('గా', 'U'), ('పు', '|'), ('వె', 'U'), ('ట్టి', '|'), ('యు', '|'), ('ను', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('గా', 'U'), ('వె', '|'), ('లి', '|'), ('వె', 'U'), ('ట్టు', '|'), ('కుం', 'U'), ('టి', '|'), ('న', 'U'), ('ల్ది', '|'), ('ర', '|'), ('గ', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('ను', '|'), ('లే', 'U'), ('త', '|'), ('గు', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్యు', '|'), ('లై', 'U'), ('రి', '|'), ('మేల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('ర', '|'), ('వి', '|'), ('వి', '|'), ('ధా', 'U'), ('త', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('స', 'U'), ('ర్వ', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('ముల్', 'U'), ('సృ', '|'), ('జిం', 'U'), ('చి', '|'), ('శ్రీ', 'U'), ('హ', '|'), ('రి', '|'), ('వ', '|'), ('యి', '|'), ('బ్రో', 'U'), ('ది', '|'), ('చే', 'U'), ('సి', '|'), ('ని', '|'), ('ట', '|'), ('లా', 'U'), ('క్షు', '|'), ('డ', '|'), ('వై', 'U'), ('య', '|'), ('డ', '|'), ('గిం', 'U'), ('పు', '|'), ('చుం', 'U'), ('దు', '|'), ('వ', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('జ', '|'), ('న', '|'), ('న', '|'), ('పో', 'U'), ('ష', '|'), ('ణ', '|'), ('నా', 'U'), ('శ', '|'), ('న', '|'), ('క', 'U'), ('ర్త', '|'), ('వా', 'U'), ('ర', '|'), ('యన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('స', '|'), ('ర', '|'), ('వి', '|'), ('వి', '|'), ('ధా', 'U'), ('త', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('స', 'U'), ('ర్వ', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('ము', 'U'), ('ల్సృ', '|'), ('జిం', 'U'), ('చి', '|'), ('శ్రీ', 'U'), ('హ', '|'), ('రి', '|'), ('వ', '|'), ('యి', '|'), ('బ్రో', 'U'), ('ది', '|'), ('చే', 'U'), ('సి', '|'), ('ని', '|'), ('ట', '|'), ('లా', 'U'), ('క్షు', '|'), ('డ', '|'), ('వై', 'U'), ('య', '|'), ('డ', '|'), ('గిం', 'U'), ('పు', '|'), ('చుం', 'U'), ('దు', '|'), ('వ', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('జ', '|'), ('న', '|'), ('న', '|'), ('పో', 'U'), ('ష', '|'), ('ణ', '|'), ('నా', 'U'), ('శ', '|'), ('న', '|'), ('క', 'U'), ('ర్త', '|'), ('వా', 'U'), ('ర', '|'), ('యన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('పొ', '|'), ('రి', '|'), ('బొ', '|'), ('రి', '|'), ('బు', 'U'), ('ణ్య', '|'), ('భూ', 'U'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('బో', 'U'), ('వ', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('గ', '|'), ('డు', 'U'), ('న్ద', '|'), ('పో', 'U'), ('మ', '|'), ('హా', 'U'), ('ధ్వ', '|'), ('ర', '|'), ('ము', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చ', '|'), ('నే', 'U'), ('ల', '|'), ('యు', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('లన్', 'U'), ('గృ', '|'), ('శి', '|'), ('యిం', 'U'), ('ప', '|'), ('నే', 'U'), ('టి', '|'), ('కిన్', 'U'), ('హ', '|'), ('ర', '|'), ('హ', '|'), ('ర', '|'), ('యం', 'U'), ('చు', '|'), ('నొ', 'U'), ('క్క', '|'), ('త', '|'), ('రి', '|'), ('నా', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('న', '|'), ('ఘ', '|'), ('ప్ర', '|'), ('శాం', 'U'), ('తి', '|'), ('కై', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('పొ', '|'), ('రి', '|'), ('బొ', '|'), ('రి', '|'), ('బు', 'U'), ('ణ్య', '|'), ('భూ', 'U'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('బో', 'U'), ('వ', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('గ', '|'), ('డు', 'U'), ('న్ద', '|'), ('పో', 'U'), ('మ', '|'), ('హా', 'U'), ('ధ్వ', '|'), ('ర', '|'), ('ము', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చ', '|'), ('నే', 'U'), ('ల', '|'), ('యు', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('ల', 'U'), ('న్గృ', '|'), ('శి', '|'), ('యిం', 'U'), ('ప', '|'), ('నే', 'U'), ('టి', '|'), ('కిన్', 'U'), ('హ', '|'), ('ర', '|'), ('హ', '|'), ('ర', '|'), ('యం', 'U'), ('చు', '|'), ('నొ', 'U'), ('క్క', '|'), ('త', '|'), ('రి', '|'), ('నా', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('న', '|'), ('ఘ', '|'), ('ప్ర', '|'), ('శాం', 'U'), ('తి', '|'), ('కై', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[('గ', '|'), ('రు', '|'), ('డ', '|'), ('ము', '|'), ('గ', 'U'), ('న్న', '|'), ('ప', 'U'), ('న్న', '|'), ('గ', '|'), ('ని', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('ట్ల', '|'), ('మృ', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('గ', 'U'), ('న్న', '|'), ('కుం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('కై', 'U'), ('వ', '|'), ('డిన్', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('దొ', '|'), ('లం', 'U'), ('గి', '|'), ('పా', 'U'), ('రు', '|'), ('చో', 'U'), ('న', '|'), ('రు', '|'), ('డొ', '|'), ('క', '|'), ('చో', 'U'), ('న', '|'), ('నా', 'U'), ('స్థ', '|'), ('న', '|'), ('యి', '|'), ('నం', 'U'), ('భ', '|'), ('వ', '|'), ('దా', 'U'), ('హ్వ', '|'), ('య', '|'), ('ము', 'U'), ('చ్చ', '|'), ('రిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('గ', '|'), ('రు', '|'), ('డ', '|'), ('ము', '|'), ('గ', 'U'), ('న్న', '|'), ('ప', 'U'), ('న్న', '|'), ('గ', '|'), ('ని', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('ట్ల', '|'), ('మృ', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('గ', 'U'), ('న్న', '|'), ('కుం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('కై', 'U'), ('వ', '|'), ('డి', 'U'), ('న్దు', '|'), ('రి', '|'), ('త', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('దొ', '|'), ('లం', 'U'), ('గి', '|'), ('పా', 'U'), ('రు', '|'), ('చో', 'U'), ('న', '|'), ('రు', '|'), ('డొ', '|'), ('క', '|'), ('చో', 'U'), ('న', '|'), ('నా', 'U'), ('స్థ', '|'), ('న', '|'), ('యి', '|'), ('నం', 'U'), ('భ', '|'), ('వ', '|'), ('దా', 'U'), ('హ్వ', '|'), ('య', '|'), ('ము', 'U'), ('చ్చ', '|'), ('రిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('సు', '|'), ('రు', 'U'), ('న్వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('గో', 'U'), ('ని', '|'), ('ధ', '|'), ('నం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('నం', 'U'), ('గు', '|'), ('రు', '|'), ('స', '|'), ('తి', '|'), ('గూ', 'U'), ('డి', '|'), ('నన్', 'U'), ('మ', '|'), ('ధు', '|'), ('వు', '|'), ('గ్రో', 'U'), ('లి', '|'), ('న', '|'), ('హే', 'U'), ('మ', '|'), ('ము', '|'), ('మ్రు', 'U'), ('చ్చ', '|'), ('లిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('దొ', '|'), ('ర', '|'), ('కొ', '|'), ('ను', '|'), ('పా', 'U'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('లొ', '|'), ('క', '|'), ('తూ', 'U'), ('రి', '|'), ('శి', '|'), ('వా', 'U'), ('య', '|'), ('ని', '|'), ('నన్', 'U'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('సు', '|'), ('రు', 'U'), ('న్వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('గో', 'U'), ('ని', '|'), ('ధ', '|'), ('నం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('నం', 'U'), ('గు', '|'), ('రు', '|'), ('స', '|'), ('తి', '|'), ('గూ', 'U'), ('డి', '|'), ('న', 'U'), ('న్మ', '|'), ('ధు', '|'), ('వు', '|'), ('గ్రో', 'U'), ('లి', '|'), ('న', '|'), ('హే', 'U'), ('మ', '|'), ('ము', '|'), ('మ్రు', 'U'), ('చ్చ', '|'), ('లిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('దొ', '|'), ('ర', '|'), ('కొ', '|'), ('ను', '|'), ('పా', 'U'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('లొ', '|'), ('క', '|'), ('తూ', 'U'), ('రి', '|'), ('శి', '|'), ('వా', 'U'), ('య', '|'), ('ని', '|'), ('న', 'U'), ('న్దొ', '|'), ('లం', 'U'), ('గు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('ర', '|'), ('యు', '|'), ('వు', '|'), ('గృ', 'U'), ('ష్ణ', '|'), ('న', 'U'), ('ర్మ', '|'), ('ద', '|'), ('యు', '|'), ('జా', 'U'), ('హ్న', '|'), ('వి', '|'), ('బా', 'U'), ('హు', '|'), ('ద', '|'), ('తుం', 'U'), ('గ', '|'), ('భ', '|'), ('ద్ర', '|'), ('భా', 'U'), ('స్క', '|'), ('ర', '|'), ('సు', '|'), ('త', '|'), ('యు', 'U'), ('న్స', '|'), ('ర', 'U'), ('స్వ', '|'), ('తి', '|'), ('యు', '|'), ('గౌ', 'U'), ('త', '|'), ('మి', '|'), ('యుం', 'U'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('ది', 'U'), ('వ్య', '|'), ('ని', 'U'), ('ర్ఝ', '|'), ('రు', '|'), ('ల', '|'), ('ను', '|'), ('ము', 'U'), ('న్గు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మొ', '|'), ('క', '|'), ('సా', 'U'), ('రె', '|'), ('శి', '|'), ('వా', 'U'), ('య', '|'), ('ని', '|'), ('నన్', 'U'), ('ల', '|'), ('భిం', 'U'), ('చు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('స', '|'), ('ర', '|'), ('యు', '|'), ('వు', '|'), ('గృ', 'U'), ('ష్ణ', '|'), ('న', 'U'), ('ర్మ', '|'), ('ద', '|'), ('యు', '|'), ('జా', 'U'), ('హ్న', '|'), ('వి', '|'), ('బా', 'U'), ('హు', '|'), ('ద', '|'), ('తుం', 'U'), ('గ', '|'), ('భ', '|'), ('ద్ర', '|'), ('భా', 'U'), ('స్క', '|'), ('ర', '|'), ('సు', '|'), ('త', '|'), ('యు', 'U'), ('న్స', '|'), ('ర', 'U'), ('స్వ', '|'), ('తి', '|'), ('యు', '|'), ('గౌ', 'U'), ('త', '|'), ('మి', '|'), ('యుం', 'U'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('ది', 'U'), ('వ్య', '|'), ('ని', 'U'), ('ర్ఝ', '|'), ('రు', '|'), ('ల', '|'), ('ను', '|'), ('ము', 'U'), ('న్గు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మొ', '|'), ('క', '|'), ('సా', 'U'), ('రె', '|'), ('శి', '|'), ('వా', 'U'), ('య', '|'), ('ని', '|'), ('న', 'U'), ('న్ల', '|'), ('భిం', 'U'), ('చు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('ర', '|'), ('వి', '|'), ('ని', '|'), ('జీ', 'U'), ('వ', '|'), ('నా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('గ', '|'), ('చ', 'U'), ('ర్మ', '|'), ('సి', '|'), ('తా', 'U'), ('భ', '|'), ('సి', '|'), ('తా', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ల', '|'), ('లే', 'U'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('ధ', '|'), ('రిం', 'U'), ('చు', '|'), ('కై', 'U'), ('త', '|'), ('వ', '|'), ('ము', '|'), ('నన్', 'U'), ('భు', '|'), ('వి', '|'), ('నా', 'U'), ('త', '|'), ('డ', '|'), ('శే', 'U'), ('ష', '|'), ('ధా', 'U'), ('రు', '|'), ('ణీ', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('ధు', '|'), ('రీ', 'U'), ('ణ', '|'), ('ప్ర', '|'), ('చు', '|'), ('ర', '|'), ('భా', 'U'), ('గ్య', '|'), ('స', '|'), ('మ', 'U'), ('న్వి', '|'), ('తు', '|'), ('డై', 'U'), ('చె', '|'), ('లం', 'U'), ('గు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('స', '|'), ('ర', '|'), ('వి', '|'), ('ని', '|'), ('జీ', 'U'), ('వ', '|'), ('నా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('గ', '|'), ('చ', 'U'), ('ర్మ', '|'), ('సి', '|'), ('తా', 'U'), ('భ', '|'), ('సి', '|'), ('తా', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ల', '|'), ('లే', 'U'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('ధ', '|'), ('రిం', 'U'), ('చు', '|'), ('కై', 'U'), ('త', '|'), ('వ', '|'), ('ము', '|'), ('న', 'U'), ('న్భు', '|'), ('వి', '|'), ('నా', 'U'), ('త', '|'), ('డ', '|'), ('శే', 'U'), ('ష', '|'), ('ధా', 'U'), ('రు', '|'), ('ణీ', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('ధు', '|'), ('రీ', 'U'), ('ణ', '|'), ('ప్ర', '|'), ('చు', '|'), ('ర', '|'), ('భా', 'U'), ('గ్య', '|'), ('స', '|'), ('మ', 'U'), ('న్వి', '|'), ('తు', '|'), ('డై', 'U'), ('చె', '|'), ('లం', 'U'), ('గు', '|'), ('బో', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('రు', '|'), ('డొ', '|'), ('క', '|'), ('నా', 'U'), ('డు', '|'), ('నీ', 'U'), ('న', '|'), ('గ', '|'), ('రు', '|'), ('నం', 'U'), ('గ', '|'), ('న', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వి', '|'), ('చి', '|'), ('త్ర', '|'), ('ఘం', 'U'), ('టి', '|'), ('కో', 'U'), ('త్క', '|'), ('ర', '|'), ('ర', '|'), ('వ', '|'), ('మా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('తం', 'U'), ('డు', '|'), ('వి', '|'), ('నం', 'U'), ('డె', '|'), ('పు', '|'), ('డున్', 'U'), ('కృ', '|'), ('తాం', 'U'), ('త', '|'), ('కా', 'U'), ('స', '|'), ('ర', '|'), ('గ', '|'), ('ళ', '|'), ('ఘం', 'U'), ('టి', '|'), ('కా', 'U'), ('వ్ర', '|'), ('జ', '|'), ('వి', '|'), ('శం', 'U'), ('క', '|'), ('ట', '|'), ('సాం', 'U'), ('ద్ర', '|'), ('ఘ', '|'), ('ణం', 'U'), ('ఘ', '|'), ('ణ', 'U'), ('ధ్వ', '|'), ('నుల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('న', '|'), ('రు', '|'), ('డొ', '|'), ('క', '|'), ('నా', 'U'), ('డు', '|'), ('నీ', 'U'), ('న', '|'), ('గ', '|'), ('రు', '|'), ('నం', 'U'), ('గ', '|'), ('న', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వి', '|'), ('చి', '|'), ('త్ర', '|'), ('ఘం', 'U'), ('టి', '|'), ('కో', 'U'), ('త్క', '|'), ('ర', '|'), ('ర', '|'), ('వ', '|'), ('మా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('తం', 'U'), ('డు', '|'), ('వి', '|'), ('నం', 'U'), ('డె', '|'), ('పు', '|'), ('డు', 'U'), ('న్కృ', '|'), ('తాం', 'U'), ('త', '|'), ('కా', 'U'), ('స', '|'), ('ర', '|'), ('గ', '|'), ('ళ', '|'), ('ఘం', 'U'), ('టి', '|'), ('కా', 'U'), ('వ్ర', '|'), ('జ', '|'), ('వి', '|'), ('శం', 'U'), ('క', '|'), ('ట', '|'), ('సాం', 'U'), ('ద్ర', '|'), ('ఘ', '|'), ('ణం', 'U'), ('ఘ', '|'), ('ణ', 'U'), ('ధ్వ', '|'), ('నుల్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('ము', '|'), ('రి', '|'), ('పె', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('న', 'U'), ('క్షు', '|'), ('స', '|'), ('ర', '|'), ('ము', 'U'), ('ల్భ', '|'), ('సి', '|'), ('తం', 'U'), ('బు', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('మ', 'U'), ('ద్గు', '|'), ('రు', '|'), ('వ', '|'), ('ర', '|'), ('ద', 'U'), ('త్త', '|'), ('మై', 'U'), ('స', '|'), ('క', '|'), ('ల', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('లన్', 'U'), ('దొ', '|'), ('ల', '|'), ('గిం', 'U'), ('చు', 'U'), ('ద్వా', 'U'), ('ద', '|'), ('శా', 'U'), ('క్ష', '|'), ('రి', '|'), ('జ', '|'), ('పి', '|'), ('యిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('క', '|'), ('లు', '|'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('కి', '|'), ('క', '|'), ('గ', 'U'), ('ల్గు', '|'), ('టె', 'U'), ('ట్ల', '|'), ('యా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('ము', '|'), ('రి', '|'), ('పె', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('న', 'U'), ('క్షు', '|'), ('స', '|'), ('ర', '|'), ('ము', 'U'), ('ల్భ', '|'), ('సి', '|'), ('తం', 'U'), ('బు', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('మ', 'U'), ('ద్గు', '|'), ('రు', '|'), ('వ', '|'), ('ర', '|'), ('ద', 'U'), ('త్త', '|'), ('మై', 'U'), ('స', '|'), ('క', '|'), ('ల', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('ల', 'U'), ('న్దొ', '|'), ('ల', '|'), ('గిం', 'U'), ('చు', 'U'), ('ద్వా', 'U'), ('ద', '|'), ('శా', 'U'), ('క్ష', '|'), ('రి', '|'), ('జ', '|'), ('పి', '|'), ('యిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('క', '|'), ('లు', '|'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('కి', '|'), ('క', '|'), ('గ', 'U'), ('ల్గు', '|'), ('టె', 'U'), ('ట్ల', '|'), ('యా', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[('ము', '|'), ('రు', '|'), ('వు', '|'), ('గ', '|'), ('న', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ల', '|'), ('యు', '|'), ('ను', '|'), ('మో', 'U'), ('ది', '|'), ('క', '|'), ('బూ', 'U'), ('ని', '|'), ('తి', '|'), ('భూ', 'U'), ('తి', '|'), ('దా', 'U'), ('ల్చి', '|'), ('తిన్', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('గ', '|'), ('నై', 'U'), ('దు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ల', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('వే', 'U'), ('మ', '|'), ('రు', '|'), ('ను', 'U'), ('చ్చ', '|'), ('రిం', 'U'), ('చి', '|'), ('తిన్', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('ముల్', 'U'), ('దొ', '|'), ('ర', '|'), ('గి', '|'), ('దూ', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('జ', '|'), ('న', '|'), ('కుం', 'U'), ('డు', '|'), ('టె', 'U'), ('ట్లి', '|'), ('కన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
+          <t>[('ము', '|'), ('రు', '|'), ('వు', '|'), ('గ', '|'), ('న', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ల', '|'), ('యు', '|'), ('ను', '|'), ('మో', 'U'), ('ది', '|'), ('క', '|'), ('బూ', 'U'), ('ని', '|'), ('తి', '|'), ('భూ', 'U'), ('తి', '|'), ('దా', 'U'), ('ల్చి', '|'), ('తిన్', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('గ', '|'), ('నై', 'U'), ('దు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ల', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('వే', 'U'), ('మ', '|'), ('రు', '|'), ('ను', 'U'), ('చ్చ', '|'), ('రిం', 'U'), ('చి', '|'), ('తిన్', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('ము', 'U'), ('ల్దొ', '|'), ('ర', '|'), ('గి', '|'), ('దూ', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('జ', '|'), ('న', '|'), ('కుం', 'U'), ('డు', '|'), ('టె', 'U'), ('ట్లి', '|'), ('కన్', 'U'), ('చి', '|'), ('ర', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('వి', '|'), ('జి', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('భ', '|'), ('వా', 'U'), ('య', '|'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('వా', 'U')]</t>
         </is>
       </c>
     </row>
